--- a/raw-data-prep/raw_data/Post-Questionnaire_RP.xlsx
+++ b/raw-data-prep/raw_data/Post-Questionnaire_RP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="150" windowWidth="19155" windowHeight="12270"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="56">
   <si>
     <t>Subject</t>
   </si>
@@ -173,12 +173,24 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>1 and 3</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>6 (egyptian/arabic)2</t>
+  </si>
+  <si>
+    <t>5 OR 6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +326,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -348,6 +361,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,20 +537,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ68" sqref="AJ68"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM120" sqref="AM120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>309</v>
       </c>
@@ -762,7 +776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>310</v>
       </c>
@@ -872,7 +886,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>311</v>
       </c>
@@ -988,7 +1002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>312</v>
       </c>
@@ -1104,7 +1118,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>313</v>
       </c>
@@ -1220,7 +1234,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>314</v>
       </c>
@@ -1336,13 +1350,13 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>315</v>
       </c>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>316</v>
       </c>
@@ -1458,7 +1472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>317</v>
       </c>
@@ -1574,7 +1588,7 @@
         <v>3.3149999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>318</v>
       </c>
@@ -1690,7 +1704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>319</v>
       </c>
@@ -1806,7 +1820,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>320</v>
       </c>
@@ -1922,7 +1936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>321</v>
       </c>
@@ -2038,7 +2052,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>322</v>
       </c>
@@ -2154,7 +2168,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>323</v>
       </c>
@@ -2270,7 +2284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>324</v>
       </c>
@@ -2386,7 +2400,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>325</v>
       </c>
@@ -2502,7 +2516,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="16.5" customHeight="1">
+    <row r="19" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>326</v>
       </c>
@@ -2618,7 +2632,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>327</v>
       </c>
@@ -2734,7 +2748,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>328</v>
       </c>
@@ -2847,7 +2861,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>329</v>
       </c>
@@ -2963,7 +2977,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>330</v>
       </c>
@@ -3079,7 +3093,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>331</v>
       </c>
@@ -3195,7 +3209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>332</v>
       </c>
@@ -3311,7 +3325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>333</v>
       </c>
@@ -3427,7 +3441,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>334</v>
       </c>
@@ -3543,7 +3557,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>335</v>
       </c>
@@ -3659,7 +3673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>336</v>
       </c>
@@ -3775,7 +3789,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>337</v>
       </c>
@@ -3891,7 +3905,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>338</v>
       </c>
@@ -4007,7 +4021,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>339</v>
       </c>
@@ -4123,7 +4137,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>340</v>
       </c>
@@ -4239,12 +4253,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>342</v>
       </c>
@@ -4360,7 +4374,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>343</v>
       </c>
@@ -4476,7 +4490,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>344</v>
       </c>
@@ -4589,7 +4603,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>345</v>
       </c>
@@ -4705,7 +4719,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>346</v>
       </c>
@@ -4821,7 +4835,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>347</v>
       </c>
@@ -4937,7 +4951,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>348</v>
       </c>
@@ -5053,7 +5067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>349</v>
       </c>
@@ -5169,7 +5183,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>350</v>
       </c>
@@ -5285,7 +5299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>351</v>
       </c>
@@ -5401,7 +5415,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>352</v>
       </c>
@@ -5517,7 +5531,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>353</v>
       </c>
@@ -5633,7 +5647,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>354</v>
       </c>
@@ -5749,7 +5763,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>355</v>
       </c>
@@ -5865,7 +5879,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>356</v>
       </c>
@@ -5981,7 +5995,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>357</v>
       </c>
@@ -6097,7 +6111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>358</v>
       </c>
@@ -6213,7 +6227,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>359</v>
       </c>
@@ -6329,7 +6343,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>360</v>
       </c>
@@ -6445,7 +6459,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>361</v>
       </c>
@@ -6561,7 +6575,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>362</v>
       </c>
@@ -6677,7 +6691,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>382</v>
       </c>
@@ -6793,7 +6807,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>383</v>
       </c>
@@ -6909,7 +6923,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>384</v>
       </c>
@@ -7025,7 +7039,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>385</v>
       </c>
@@ -7141,7 +7155,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>386</v>
       </c>
@@ -7257,7 +7271,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>387</v>
       </c>
@@ -7373,7 +7387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>388</v>
       </c>
@@ -7489,7 +7503,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>389</v>
       </c>
@@ -7605,7 +7619,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>390</v>
       </c>
@@ -7721,7 +7735,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>391</v>
       </c>
@@ -7837,7 +7851,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>392</v>
       </c>
@@ -7953,7 +7967,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>393</v>
       </c>
@@ -8069,7 +8083,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>394</v>
       </c>
@@ -8185,7 +8199,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>395</v>
       </c>
@@ -8301,7 +8315,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>396</v>
       </c>
@@ -8417,7 +8431,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>397</v>
       </c>
@@ -8533,7 +8547,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>398</v>
       </c>
@@ -8649,7 +8663,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>399</v>
       </c>
@@ -8765,7 +8779,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>400</v>
       </c>
@@ -8881,7 +8895,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>401</v>
       </c>
@@ -8997,7 +9011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>402</v>
       </c>
@@ -9113,7 +9127,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>403</v>
       </c>
@@ -9229,7 +9243,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>404</v>
       </c>
@@ -9345,7 +9359,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>405</v>
       </c>
@@ -9461,7 +9475,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>406</v>
       </c>
@@ -9577,7 +9591,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>407</v>
       </c>
@@ -9693,7 +9707,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>408</v>
       </c>
@@ -9809,7 +9823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>409</v>
       </c>
@@ -9925,7 +9939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>410</v>
       </c>
@@ -10041,7 +10055,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>411</v>
       </c>
@@ -10157,7 +10171,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>412</v>
       </c>
@@ -10273,7 +10287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>413</v>
       </c>
@@ -10389,7 +10403,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>414</v>
       </c>
@@ -10505,7 +10519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>415</v>
       </c>
@@ -10621,7 +10635,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>416</v>
       </c>
@@ -10737,7 +10751,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>417</v>
       </c>
@@ -10853,7 +10867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>418</v>
       </c>
@@ -10969,7 +10983,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>419</v>
       </c>
@@ -11085,7 +11099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>420</v>
       </c>
@@ -11201,7 +11215,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>421</v>
       </c>
@@ -11317,7 +11331,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>422</v>
       </c>
@@ -11433,7 +11447,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="97" spans="1:38">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>423</v>
       </c>
@@ -11549,7 +11563,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="98" spans="1:38">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>424</v>
       </c>
@@ -11663,6 +11677,2578 @@
       </c>
       <c r="AL98">
         <v>3.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>425</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99" t="s">
+        <v>39</v>
+      </c>
+      <c r="I99" t="s">
+        <v>39</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
+      </c>
+      <c r="L99">
+        <v>5</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>3</v>
+      </c>
+      <c r="P99">
+        <v>2</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>3</v>
+      </c>
+      <c r="S99">
+        <v>6</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="V99">
+        <v>1</v>
+      </c>
+      <c r="W99">
+        <v>3</v>
+      </c>
+      <c r="X99">
+        <v>6</v>
+      </c>
+      <c r="Y99">
+        <v>2</v>
+      </c>
+      <c r="Z99">
+        <v>2</v>
+      </c>
+      <c r="AA99">
+        <v>4</v>
+      </c>
+      <c r="AB99">
+        <v>6</v>
+      </c>
+      <c r="AC99">
+        <v>7</v>
+      </c>
+      <c r="AD99">
+        <v>6</v>
+      </c>
+      <c r="AE99">
+        <v>7</v>
+      </c>
+      <c r="AF99">
+        <v>5</v>
+      </c>
+      <c r="AG99">
+        <v>6</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI99">
+        <v>19</v>
+      </c>
+      <c r="AJ99">
+        <v>5</v>
+      </c>
+      <c r="AK99">
+        <v>2</v>
+      </c>
+      <c r="AL99">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>426</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>39</v>
+      </c>
+      <c r="I100" t="s">
+        <v>39</v>
+      </c>
+      <c r="J100">
+        <v>6</v>
+      </c>
+      <c r="K100">
+        <v>6</v>
+      </c>
+      <c r="L100">
+        <v>6</v>
+      </c>
+      <c r="M100">
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>4</v>
+      </c>
+      <c r="S100">
+        <v>4</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
+      <c r="W100">
+        <v>2</v>
+      </c>
+      <c r="X100">
+        <v>5</v>
+      </c>
+      <c r="Y100">
+        <v>1</v>
+      </c>
+      <c r="Z100">
+        <v>1</v>
+      </c>
+      <c r="AA100">
+        <v>7</v>
+      </c>
+      <c r="AB100">
+        <v>5</v>
+      </c>
+      <c r="AC100">
+        <v>6</v>
+      </c>
+      <c r="AD100">
+        <v>7</v>
+      </c>
+      <c r="AE100">
+        <v>4</v>
+      </c>
+      <c r="AF100">
+        <v>4</v>
+      </c>
+      <c r="AG100">
+        <v>7</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI100">
+        <v>19</v>
+      </c>
+      <c r="AJ100">
+        <v>5</v>
+      </c>
+      <c r="AK100">
+        <v>1</v>
+      </c>
+      <c r="AL100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>427</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>7</v>
+      </c>
+      <c r="E101">
+        <v>7</v>
+      </c>
+      <c r="F101">
+        <v>7</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>39</v>
+      </c>
+      <c r="I101" t="s">
+        <v>39</v>
+      </c>
+      <c r="J101">
+        <v>7</v>
+      </c>
+      <c r="K101">
+        <v>5</v>
+      </c>
+      <c r="L101">
+        <v>6</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>3</v>
+      </c>
+      <c r="S101">
+        <v>4</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="V101">
+        <v>1</v>
+      </c>
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101">
+        <v>4</v>
+      </c>
+      <c r="Y101">
+        <v>1</v>
+      </c>
+      <c r="Z101">
+        <v>1</v>
+      </c>
+      <c r="AA101">
+        <v>7</v>
+      </c>
+      <c r="AB101">
+        <v>3</v>
+      </c>
+      <c r="AC101">
+        <v>6</v>
+      </c>
+      <c r="AD101">
+        <v>6</v>
+      </c>
+      <c r="AE101">
+        <v>7</v>
+      </c>
+      <c r="AF101">
+        <v>7</v>
+      </c>
+      <c r="AG101">
+        <v>7</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI101">
+        <v>21</v>
+      </c>
+      <c r="AJ101">
+        <v>5</v>
+      </c>
+      <c r="AK101">
+        <v>4</v>
+      </c>
+      <c r="AL101">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>428</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>4</v>
+      </c>
+      <c r="H102" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" t="s">
+        <v>39</v>
+      </c>
+      <c r="J102">
+        <v>3</v>
+      </c>
+      <c r="K102">
+        <v>5</v>
+      </c>
+      <c r="L102">
+        <v>6</v>
+      </c>
+      <c r="M102">
+        <v>6</v>
+      </c>
+      <c r="N102">
+        <v>4</v>
+      </c>
+      <c r="O102">
+        <v>4</v>
+      </c>
+      <c r="P102">
+        <v>5</v>
+      </c>
+      <c r="Q102">
+        <v>7</v>
+      </c>
+      <c r="R102">
+        <v>7</v>
+      </c>
+      <c r="S102">
+        <v>6</v>
+      </c>
+      <c r="T102">
+        <v>7</v>
+      </c>
+      <c r="U102">
+        <v>6</v>
+      </c>
+      <c r="V102">
+        <v>7</v>
+      </c>
+      <c r="W102">
+        <v>6</v>
+      </c>
+      <c r="X102">
+        <v>7</v>
+      </c>
+      <c r="Y102">
+        <v>4</v>
+      </c>
+      <c r="Z102">
+        <v>3</v>
+      </c>
+      <c r="AA102">
+        <v>7</v>
+      </c>
+      <c r="AB102">
+        <v>1</v>
+      </c>
+      <c r="AC102">
+        <v>1</v>
+      </c>
+      <c r="AD102">
+        <v>1</v>
+      </c>
+      <c r="AE102">
+        <v>1</v>
+      </c>
+      <c r="AF102">
+        <v>1</v>
+      </c>
+      <c r="AG102">
+        <v>1</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI102">
+        <v>21</v>
+      </c>
+      <c r="AJ102">
+        <v>5</v>
+      </c>
+      <c r="AK102">
+        <v>3</v>
+      </c>
+      <c r="AL102">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>429</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>5</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>39</v>
+      </c>
+      <c r="I103" t="s">
+        <v>39</v>
+      </c>
+      <c r="J103">
+        <v>5</v>
+      </c>
+      <c r="K103">
+        <v>5</v>
+      </c>
+      <c r="L103">
+        <v>5</v>
+      </c>
+      <c r="M103">
+        <v>6</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103">
+        <v>5</v>
+      </c>
+      <c r="P103">
+        <v>3</v>
+      </c>
+      <c r="Q103">
+        <v>4</v>
+      </c>
+      <c r="R103">
+        <v>5</v>
+      </c>
+      <c r="S103">
+        <v>6</v>
+      </c>
+      <c r="T103">
+        <v>5</v>
+      </c>
+      <c r="U103">
+        <v>4</v>
+      </c>
+      <c r="V103">
+        <v>4</v>
+      </c>
+      <c r="W103">
+        <v>3</v>
+      </c>
+      <c r="X103">
+        <v>5</v>
+      </c>
+      <c r="Y103">
+        <v>3</v>
+      </c>
+      <c r="Z103">
+        <v>3</v>
+      </c>
+      <c r="AA103">
+        <v>5</v>
+      </c>
+      <c r="AB103">
+        <v>2</v>
+      </c>
+      <c r="AC103">
+        <v>5</v>
+      </c>
+      <c r="AD103">
+        <v>3</v>
+      </c>
+      <c r="AE103">
+        <v>4</v>
+      </c>
+      <c r="AF103">
+        <v>2</v>
+      </c>
+      <c r="AG103">
+        <v>3</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI103">
+        <v>19</v>
+      </c>
+      <c r="AJ103">
+        <v>5</v>
+      </c>
+      <c r="AK103">
+        <v>1</v>
+      </c>
+      <c r="AL103">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>430</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104" t="s">
+        <v>39</v>
+      </c>
+      <c r="I104" t="s">
+        <v>39</v>
+      </c>
+      <c r="J104">
+        <v>7</v>
+      </c>
+      <c r="K104">
+        <v>7</v>
+      </c>
+      <c r="L104">
+        <v>7</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104">
+        <v>7</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q104">
+        <v>5</v>
+      </c>
+      <c r="R104">
+        <v>7</v>
+      </c>
+      <c r="S104">
+        <v>7</v>
+      </c>
+      <c r="T104">
+        <v>1</v>
+      </c>
+      <c r="U104">
+        <v>2</v>
+      </c>
+      <c r="V104">
+        <v>1</v>
+      </c>
+      <c r="W104">
+        <v>5</v>
+      </c>
+      <c r="X104">
+        <v>7</v>
+      </c>
+      <c r="Y104">
+        <v>1</v>
+      </c>
+      <c r="Z104">
+        <v>2</v>
+      </c>
+      <c r="AA104">
+        <v>7</v>
+      </c>
+      <c r="AB104">
+        <v>5</v>
+      </c>
+      <c r="AC104">
+        <v>7</v>
+      </c>
+      <c r="AD104">
+        <v>7</v>
+      </c>
+      <c r="AE104">
+        <v>5</v>
+      </c>
+      <c r="AF104">
+        <v>6</v>
+      </c>
+      <c r="AG104">
+        <v>7</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI104">
+        <v>19</v>
+      </c>
+      <c r="AJ104">
+        <v>5</v>
+      </c>
+      <c r="AK104">
+        <v>1</v>
+      </c>
+      <c r="AL104">
+        <v>3.7120000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>431</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105" t="s">
+        <v>39</v>
+      </c>
+      <c r="I105" t="s">
+        <v>39</v>
+      </c>
+      <c r="J105">
+        <v>7</v>
+      </c>
+      <c r="K105">
+        <v>4</v>
+      </c>
+      <c r="L105">
+        <v>5</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>4</v>
+      </c>
+      <c r="S105">
+        <v>5</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>2</v>
+      </c>
+      <c r="V105">
+        <v>1</v>
+      </c>
+      <c r="W105">
+        <v>1</v>
+      </c>
+      <c r="X105">
+        <v>7</v>
+      </c>
+      <c r="Y105">
+        <v>1</v>
+      </c>
+      <c r="Z105">
+        <v>2</v>
+      </c>
+      <c r="AA105">
+        <v>5</v>
+      </c>
+      <c r="AB105">
+        <v>5</v>
+      </c>
+      <c r="AC105">
+        <v>7</v>
+      </c>
+      <c r="AD105">
+        <v>7</v>
+      </c>
+      <c r="AE105">
+        <v>6</v>
+      </c>
+      <c r="AF105">
+        <v>6</v>
+      </c>
+      <c r="AG105">
+        <v>6</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI105">
+        <v>18</v>
+      </c>
+      <c r="AJ105">
+        <v>5</v>
+      </c>
+      <c r="AK105">
+        <v>1</v>
+      </c>
+      <c r="AL105">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>432</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>7</v>
+      </c>
+      <c r="H106" t="s">
+        <v>39</v>
+      </c>
+      <c r="I106" t="s">
+        <v>39</v>
+      </c>
+      <c r="J106">
+        <v>7</v>
+      </c>
+      <c r="K106">
+        <v>6</v>
+      </c>
+      <c r="L106">
+        <v>7</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106">
+        <v>4</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>5</v>
+      </c>
+      <c r="R106">
+        <v>6</v>
+      </c>
+      <c r="S106">
+        <v>4</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="V106">
+        <v>2</v>
+      </c>
+      <c r="W106">
+        <v>3</v>
+      </c>
+      <c r="X106">
+        <v>7</v>
+      </c>
+      <c r="Y106">
+        <v>3</v>
+      </c>
+      <c r="Z106">
+        <v>2</v>
+      </c>
+      <c r="AA106">
+        <v>7</v>
+      </c>
+      <c r="AB106">
+        <v>6</v>
+      </c>
+      <c r="AC106">
+        <v>7</v>
+      </c>
+      <c r="AD106">
+        <v>7</v>
+      </c>
+      <c r="AE106">
+        <v>7</v>
+      </c>
+      <c r="AF106">
+        <v>5</v>
+      </c>
+      <c r="AG106">
+        <v>7</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI106">
+        <v>20</v>
+      </c>
+      <c r="AJ106">
+        <v>5</v>
+      </c>
+      <c r="AK106">
+        <v>2</v>
+      </c>
+      <c r="AL106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>433</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>7</v>
+      </c>
+      <c r="H107" t="s">
+        <v>45</v>
+      </c>
+      <c r="I107" t="s">
+        <v>45</v>
+      </c>
+      <c r="J107">
+        <v>7</v>
+      </c>
+      <c r="K107">
+        <v>7</v>
+      </c>
+      <c r="L107">
+        <v>7</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>7</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>4</v>
+      </c>
+      <c r="R107">
+        <v>7</v>
+      </c>
+      <c r="S107">
+        <v>7</v>
+      </c>
+      <c r="T107">
+        <v>1</v>
+      </c>
+      <c r="U107">
+        <v>1</v>
+      </c>
+      <c r="V107">
+        <v>1</v>
+      </c>
+      <c r="W107">
+        <v>3</v>
+      </c>
+      <c r="X107">
+        <v>7</v>
+      </c>
+      <c r="Y107">
+        <v>1</v>
+      </c>
+      <c r="Z107">
+        <v>7</v>
+      </c>
+      <c r="AA107">
+        <v>7</v>
+      </c>
+      <c r="AB107">
+        <v>7</v>
+      </c>
+      <c r="AC107">
+        <v>7</v>
+      </c>
+      <c r="AD107">
+        <v>7</v>
+      </c>
+      <c r="AE107">
+        <v>7</v>
+      </c>
+      <c r="AF107">
+        <v>7</v>
+      </c>
+      <c r="AG107">
+        <v>7</v>
+      </c>
+      <c r="AH107" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI107">
+        <v>19</v>
+      </c>
+      <c r="AJ107">
+        <v>5</v>
+      </c>
+      <c r="AK107">
+        <v>1</v>
+      </c>
+      <c r="AL107">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>434</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>4</v>
+      </c>
+      <c r="H108" t="s">
+        <v>39</v>
+      </c>
+      <c r="I108" t="s">
+        <v>39</v>
+      </c>
+      <c r="J108">
+        <v>7</v>
+      </c>
+      <c r="K108">
+        <v>5</v>
+      </c>
+      <c r="L108">
+        <v>5</v>
+      </c>
+      <c r="M108">
+        <v>6</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108">
+        <v>6</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>5</v>
+      </c>
+      <c r="R108">
+        <v>5</v>
+      </c>
+      <c r="S108">
+        <v>4</v>
+      </c>
+      <c r="T108">
+        <v>3</v>
+      </c>
+      <c r="U108">
+        <v>5</v>
+      </c>
+      <c r="V108">
+        <v>2</v>
+      </c>
+      <c r="W108">
+        <v>3</v>
+      </c>
+      <c r="X108">
+        <v>6</v>
+      </c>
+      <c r="Y108">
+        <v>1</v>
+      </c>
+      <c r="Z108">
+        <v>3</v>
+      </c>
+      <c r="AA108">
+        <v>6</v>
+      </c>
+      <c r="AB108">
+        <v>6</v>
+      </c>
+      <c r="AC108">
+        <v>6</v>
+      </c>
+      <c r="AD108">
+        <v>6</v>
+      </c>
+      <c r="AE108">
+        <v>5</v>
+      </c>
+      <c r="AF108">
+        <v>6</v>
+      </c>
+      <c r="AG108">
+        <v>7</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI108">
+        <v>21</v>
+      </c>
+      <c r="AJ108">
+        <v>5</v>
+      </c>
+      <c r="AK108">
+        <v>3</v>
+      </c>
+      <c r="AL108">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>435</v>
+      </c>
+      <c r="B109">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>6</v>
+      </c>
+      <c r="H109" t="s">
+        <v>39</v>
+      </c>
+      <c r="I109" t="s">
+        <v>39</v>
+      </c>
+      <c r="J109">
+        <v>7</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>6</v>
+      </c>
+      <c r="S109">
+        <v>7</v>
+      </c>
+      <c r="T109">
+        <v>1</v>
+      </c>
+      <c r="U109">
+        <v>1</v>
+      </c>
+      <c r="V109">
+        <v>1</v>
+      </c>
+      <c r="W109">
+        <v>1</v>
+      </c>
+      <c r="X109">
+        <v>7</v>
+      </c>
+      <c r="Y109">
+        <v>1</v>
+      </c>
+      <c r="Z109">
+        <v>4</v>
+      </c>
+      <c r="AA109">
+        <v>5</v>
+      </c>
+      <c r="AB109">
+        <v>6</v>
+      </c>
+      <c r="AC109">
+        <v>7</v>
+      </c>
+      <c r="AD109">
+        <v>7</v>
+      </c>
+      <c r="AE109">
+        <v>7</v>
+      </c>
+      <c r="AF109">
+        <v>7</v>
+      </c>
+      <c r="AG109">
+        <v>7</v>
+      </c>
+      <c r="AH109" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI109">
+        <v>20</v>
+      </c>
+      <c r="AJ109">
+        <v>5</v>
+      </c>
+      <c r="AK109">
+        <v>2</v>
+      </c>
+      <c r="AL109">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>436</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110">
+        <v>4</v>
+      </c>
+      <c r="H110" t="s">
+        <v>45</v>
+      </c>
+      <c r="I110" t="s">
+        <v>45</v>
+      </c>
+      <c r="J110">
+        <v>3</v>
+      </c>
+      <c r="K110">
+        <v>6</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>7</v>
+      </c>
+      <c r="N110">
+        <v>5</v>
+      </c>
+      <c r="O110">
+        <v>2</v>
+      </c>
+      <c r="P110">
+        <v>4</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>5</v>
+      </c>
+      <c r="S110">
+        <v>6</v>
+      </c>
+      <c r="T110">
+        <v>6</v>
+      </c>
+      <c r="U110">
+        <v>7</v>
+      </c>
+      <c r="V110">
+        <v>3</v>
+      </c>
+      <c r="W110">
+        <v>6</v>
+      </c>
+      <c r="X110">
+        <v>4</v>
+      </c>
+      <c r="Y110">
+        <v>2</v>
+      </c>
+      <c r="Z110">
+        <v>1</v>
+      </c>
+      <c r="AA110">
+        <v>6</v>
+      </c>
+      <c r="AB110">
+        <v>5</v>
+      </c>
+      <c r="AC110">
+        <v>6</v>
+      </c>
+      <c r="AD110">
+        <v>2</v>
+      </c>
+      <c r="AE110">
+        <v>2</v>
+      </c>
+      <c r="AF110">
+        <v>1</v>
+      </c>
+      <c r="AG110">
+        <v>5</v>
+      </c>
+      <c r="AH110" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI110">
+        <v>19</v>
+      </c>
+      <c r="AJ110">
+        <v>5</v>
+      </c>
+      <c r="AK110">
+        <v>1</v>
+      </c>
+      <c r="AL110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>437</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>5</v>
+      </c>
+      <c r="H111" t="s">
+        <v>45</v>
+      </c>
+      <c r="I111" t="s">
+        <v>45</v>
+      </c>
+      <c r="J111">
+        <v>7</v>
+      </c>
+      <c r="K111">
+        <v>6</v>
+      </c>
+      <c r="L111">
+        <v>6</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>5</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>5</v>
+      </c>
+      <c r="S111">
+        <v>6</v>
+      </c>
+      <c r="T111">
+        <v>1</v>
+      </c>
+      <c r="U111">
+        <v>1</v>
+      </c>
+      <c r="V111">
+        <v>1</v>
+      </c>
+      <c r="W111">
+        <v>1</v>
+      </c>
+      <c r="X111">
+        <v>7</v>
+      </c>
+      <c r="Y111">
+        <v>1</v>
+      </c>
+      <c r="Z111">
+        <v>1</v>
+      </c>
+      <c r="AA111">
+        <v>7</v>
+      </c>
+      <c r="AB111">
+        <v>7</v>
+      </c>
+      <c r="AC111">
+        <v>7</v>
+      </c>
+      <c r="AD111">
+        <v>7</v>
+      </c>
+      <c r="AE111">
+        <v>7</v>
+      </c>
+      <c r="AF111">
+        <v>7</v>
+      </c>
+      <c r="AG111">
+        <v>7</v>
+      </c>
+      <c r="AH111" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI111">
+        <v>18</v>
+      </c>
+      <c r="AJ111">
+        <v>5</v>
+      </c>
+      <c r="AK111">
+        <v>1</v>
+      </c>
+      <c r="AL111">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>438</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <v>4</v>
+      </c>
+      <c r="H112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I112" t="s">
+        <v>39</v>
+      </c>
+      <c r="J112">
+        <v>5</v>
+      </c>
+      <c r="K112">
+        <v>3</v>
+      </c>
+      <c r="L112">
+        <v>5</v>
+      </c>
+      <c r="M112">
+        <v>7</v>
+      </c>
+      <c r="N112">
+        <v>7</v>
+      </c>
+      <c r="O112">
+        <v>7</v>
+      </c>
+      <c r="P112">
+        <v>3</v>
+      </c>
+      <c r="Q112">
+        <v>6</v>
+      </c>
+      <c r="R112">
+        <v>4</v>
+      </c>
+      <c r="S112">
+        <v>5</v>
+      </c>
+      <c r="T112">
+        <v>3</v>
+      </c>
+      <c r="U112">
+        <v>5</v>
+      </c>
+      <c r="V112">
+        <v>3</v>
+      </c>
+      <c r="W112">
+        <v>5</v>
+      </c>
+      <c r="X112">
+        <v>6</v>
+      </c>
+      <c r="Y112">
+        <v>5</v>
+      </c>
+      <c r="Z112">
+        <v>5</v>
+      </c>
+      <c r="AA112">
+        <v>2</v>
+      </c>
+      <c r="AB112">
+        <v>4</v>
+      </c>
+      <c r="AC112">
+        <v>5</v>
+      </c>
+      <c r="AD112">
+        <v>3</v>
+      </c>
+      <c r="AE112">
+        <v>3</v>
+      </c>
+      <c r="AF112">
+        <v>1</v>
+      </c>
+      <c r="AG112">
+        <v>2</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI112">
+        <v>19</v>
+      </c>
+      <c r="AJ112">
+        <v>5</v>
+      </c>
+      <c r="AK112">
+        <v>1</v>
+      </c>
+      <c r="AL112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>439</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>6</v>
+      </c>
+      <c r="H113" t="s">
+        <v>39</v>
+      </c>
+      <c r="I113" t="s">
+        <v>39</v>
+      </c>
+      <c r="J113">
+        <v>7</v>
+      </c>
+      <c r="K113">
+        <v>5</v>
+      </c>
+      <c r="L113">
+        <v>5</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>2</v>
+      </c>
+      <c r="R113">
+        <v>4</v>
+      </c>
+      <c r="S113">
+        <v>5</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <v>3</v>
+      </c>
+      <c r="V113">
+        <v>3</v>
+      </c>
+      <c r="W113">
+        <v>1</v>
+      </c>
+      <c r="X113">
+        <v>7</v>
+      </c>
+      <c r="Y113">
+        <v>1</v>
+      </c>
+      <c r="Z113">
+        <v>4</v>
+      </c>
+      <c r="AA113">
+        <v>5</v>
+      </c>
+      <c r="AB113">
+        <v>1</v>
+      </c>
+      <c r="AC113">
+        <v>5</v>
+      </c>
+      <c r="AD113">
+        <v>3</v>
+      </c>
+      <c r="AE113">
+        <v>4</v>
+      </c>
+      <c r="AF113">
+        <v>5</v>
+      </c>
+      <c r="AG113">
+        <v>5</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI113">
+        <v>18</v>
+      </c>
+      <c r="AJ113">
+        <v>5</v>
+      </c>
+      <c r="AK113">
+        <v>1</v>
+      </c>
+      <c r="AL113">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>440</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114" t="s">
+        <v>39</v>
+      </c>
+      <c r="I114" t="s">
+        <v>39</v>
+      </c>
+      <c r="J114">
+        <v>6</v>
+      </c>
+      <c r="K114">
+        <v>5</v>
+      </c>
+      <c r="L114">
+        <v>5</v>
+      </c>
+      <c r="M114">
+        <v>4</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>4</v>
+      </c>
+      <c r="P114">
+        <v>3</v>
+      </c>
+      <c r="Q114">
+        <v>5</v>
+      </c>
+      <c r="R114">
+        <v>5</v>
+      </c>
+      <c r="S114">
+        <v>7</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
+        <v>2</v>
+      </c>
+      <c r="V114">
+        <v>2</v>
+      </c>
+      <c r="W114">
+        <v>4</v>
+      </c>
+      <c r="X114">
+        <v>7</v>
+      </c>
+      <c r="Y114">
+        <v>2</v>
+      </c>
+      <c r="Z114">
+        <v>4</v>
+      </c>
+      <c r="AA114">
+        <v>6</v>
+      </c>
+      <c r="AB114">
+        <v>4</v>
+      </c>
+      <c r="AC114">
+        <v>6</v>
+      </c>
+      <c r="AD114">
+        <v>6</v>
+      </c>
+      <c r="AE114">
+        <v>6</v>
+      </c>
+      <c r="AF114">
+        <v>3</v>
+      </c>
+      <c r="AG114">
+        <v>4</v>
+      </c>
+      <c r="AH114" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI114">
+        <v>21</v>
+      </c>
+      <c r="AJ114">
+        <v>5</v>
+      </c>
+      <c r="AK114">
+        <v>3</v>
+      </c>
+      <c r="AL114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>441</v>
+      </c>
+      <c r="B115">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>6</v>
+      </c>
+      <c r="H115" t="s">
+        <v>53</v>
+      </c>
+      <c r="I115" t="s">
+        <v>53</v>
+      </c>
+      <c r="J115">
+        <v>7</v>
+      </c>
+      <c r="K115">
+        <v>5</v>
+      </c>
+      <c r="L115">
+        <v>6</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>6</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>2</v>
+      </c>
+      <c r="R115">
+        <v>6</v>
+      </c>
+      <c r="S115">
+        <v>6</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1</v>
+      </c>
+      <c r="V115">
+        <v>2</v>
+      </c>
+      <c r="W115">
+        <v>2</v>
+      </c>
+      <c r="X115">
+        <v>6</v>
+      </c>
+      <c r="Y115">
+        <v>1</v>
+      </c>
+      <c r="Z115">
+        <v>1</v>
+      </c>
+      <c r="AA115">
+        <v>6</v>
+      </c>
+      <c r="AB115">
+        <v>5</v>
+      </c>
+      <c r="AC115">
+        <v>7</v>
+      </c>
+      <c r="AD115">
+        <v>7</v>
+      </c>
+      <c r="AE115">
+        <v>6</v>
+      </c>
+      <c r="AF115">
+        <v>5</v>
+      </c>
+      <c r="AG115">
+        <v>6</v>
+      </c>
+      <c r="AH115" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI115">
+        <v>19</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK115">
+        <v>2</v>
+      </c>
+      <c r="AL115">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>442</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
+      </c>
+      <c r="G116">
+        <v>5</v>
+      </c>
+      <c r="H116" t="s">
+        <v>53</v>
+      </c>
+      <c r="I116" t="s">
+        <v>53</v>
+      </c>
+      <c r="J116">
+        <v>7</v>
+      </c>
+      <c r="K116">
+        <v>7</v>
+      </c>
+      <c r="L116">
+        <v>7</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116">
+        <v>7</v>
+      </c>
+      <c r="P116">
+        <v>2</v>
+      </c>
+      <c r="Q116">
+        <v>7</v>
+      </c>
+      <c r="R116">
+        <v>7</v>
+      </c>
+      <c r="S116">
+        <v>7</v>
+      </c>
+      <c r="T116">
+        <v>4</v>
+      </c>
+      <c r="U116">
+        <v>7</v>
+      </c>
+      <c r="V116">
+        <v>1</v>
+      </c>
+      <c r="W116" t="s">
+        <v>55</v>
+      </c>
+      <c r="X116">
+        <v>7</v>
+      </c>
+      <c r="Y116">
+        <v>1</v>
+      </c>
+      <c r="Z116">
+        <v>2</v>
+      </c>
+      <c r="AA116">
+        <v>7</v>
+      </c>
+      <c r="AB116">
+        <v>6</v>
+      </c>
+      <c r="AC116">
+        <v>7</v>
+      </c>
+      <c r="AD116">
+        <v>7</v>
+      </c>
+      <c r="AE116">
+        <v>7</v>
+      </c>
+      <c r="AF116">
+        <v>2</v>
+      </c>
+      <c r="AG116">
+        <v>7</v>
+      </c>
+      <c r="AH116" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI116">
+        <v>21</v>
+      </c>
+      <c r="AJ116">
+        <v>5</v>
+      </c>
+      <c r="AK116">
+        <v>3</v>
+      </c>
+      <c r="AL116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>443</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>7</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>6</v>
+      </c>
+      <c r="H117" t="s">
+        <v>53</v>
+      </c>
+      <c r="I117" t="s">
+        <v>53</v>
+      </c>
+      <c r="J117">
+        <v>6</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117">
+        <v>2</v>
+      </c>
+      <c r="P117">
+        <v>2</v>
+      </c>
+      <c r="Q117">
+        <v>5</v>
+      </c>
+      <c r="R117">
+        <v>3</v>
+      </c>
+      <c r="S117">
+        <v>5</v>
+      </c>
+      <c r="T117">
+        <v>4</v>
+      </c>
+      <c r="U117">
+        <v>6</v>
+      </c>
+      <c r="V117">
+        <v>4</v>
+      </c>
+      <c r="W117">
+        <v>5</v>
+      </c>
+      <c r="X117">
+        <v>6</v>
+      </c>
+      <c r="Y117">
+        <v>6</v>
+      </c>
+      <c r="Z117">
+        <v>5</v>
+      </c>
+      <c r="AA117">
+        <v>5</v>
+      </c>
+      <c r="AB117">
+        <v>3</v>
+      </c>
+      <c r="AC117">
+        <v>7</v>
+      </c>
+      <c r="AD117">
+        <v>6</v>
+      </c>
+      <c r="AE117">
+        <v>4</v>
+      </c>
+      <c r="AF117">
+        <v>5</v>
+      </c>
+      <c r="AG117">
+        <v>7</v>
+      </c>
+      <c r="AH117" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI117">
+        <v>19</v>
+      </c>
+      <c r="AJ117">
+        <v>2</v>
+      </c>
+      <c r="AK117">
+        <v>1</v>
+      </c>
+      <c r="AL117">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>444</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>5</v>
+      </c>
+      <c r="H118" t="s">
+        <v>53</v>
+      </c>
+      <c r="I118" t="s">
+        <v>53</v>
+      </c>
+      <c r="J118">
+        <v>7</v>
+      </c>
+      <c r="K118">
+        <v>3</v>
+      </c>
+      <c r="L118">
+        <v>5</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>3</v>
+      </c>
+      <c r="R118">
+        <v>5</v>
+      </c>
+      <c r="S118">
+        <v>5</v>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+      <c r="U118">
+        <v>3</v>
+      </c>
+      <c r="V118">
+        <v>2</v>
+      </c>
+      <c r="W118">
+        <v>2</v>
+      </c>
+      <c r="X118">
+        <v>6</v>
+      </c>
+      <c r="Y118">
+        <v>2</v>
+      </c>
+      <c r="Z118">
+        <v>2</v>
+      </c>
+      <c r="AA118">
+        <v>5</v>
+      </c>
+      <c r="AB118">
+        <v>1</v>
+      </c>
+      <c r="AC118">
+        <v>7</v>
+      </c>
+      <c r="AD118">
+        <v>7</v>
+      </c>
+      <c r="AE118">
+        <v>7</v>
+      </c>
+      <c r="AF118">
+        <v>7</v>
+      </c>
+      <c r="AG118">
+        <v>7</v>
+      </c>
+      <c r="AH118" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI118">
+        <v>19</v>
+      </c>
+      <c r="AJ118">
+        <v>5</v>
+      </c>
+      <c r="AK118">
+        <v>1</v>
+      </c>
+      <c r="AL118">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>445</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>5</v>
+      </c>
+      <c r="H119" t="s">
+        <v>53</v>
+      </c>
+      <c r="I119" t="s">
+        <v>53</v>
+      </c>
+      <c r="J119">
+        <v>5</v>
+      </c>
+      <c r="K119">
+        <v>4</v>
+      </c>
+      <c r="L119">
+        <v>5</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119">
+        <v>6</v>
+      </c>
+      <c r="P119">
+        <v>2</v>
+      </c>
+      <c r="Q119">
+        <v>3</v>
+      </c>
+      <c r="R119">
+        <v>5</v>
+      </c>
+      <c r="S119">
+        <v>6</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
+        <v>1</v>
+      </c>
+      <c r="V119">
+        <v>4</v>
+      </c>
+      <c r="W119">
+        <v>4</v>
+      </c>
+      <c r="X119">
+        <v>6</v>
+      </c>
+      <c r="Y119">
+        <v>3</v>
+      </c>
+      <c r="Z119">
+        <v>5</v>
+      </c>
+      <c r="AA119">
+        <v>4</v>
+      </c>
+      <c r="AB119">
+        <v>5</v>
+      </c>
+      <c r="AC119">
+        <v>6</v>
+      </c>
+      <c r="AD119">
+        <v>5</v>
+      </c>
+      <c r="AE119">
+        <v>4</v>
+      </c>
+      <c r="AF119">
+        <v>3</v>
+      </c>
+      <c r="AG119">
+        <v>4</v>
+      </c>
+      <c r="AH119" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI119">
+        <v>20</v>
+      </c>
+      <c r="AJ119">
+        <v>5</v>
+      </c>
+      <c r="AK119">
+        <v>2</v>
+      </c>
+      <c r="AL119">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>446</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>5</v>
+      </c>
+      <c r="H120" t="s">
+        <v>53</v>
+      </c>
+      <c r="I120" t="s">
+        <v>53</v>
+      </c>
+      <c r="J120">
+        <v>5</v>
+      </c>
+      <c r="K120">
+        <v>5</v>
+      </c>
+      <c r="L120">
+        <v>5</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>6</v>
+      </c>
+      <c r="P120">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>7</v>
+      </c>
+      <c r="S120">
+        <v>7</v>
+      </c>
+      <c r="T120">
+        <v>3</v>
+      </c>
+      <c r="U120">
+        <v>5</v>
+      </c>
+      <c r="V120">
+        <v>1</v>
+      </c>
+      <c r="W120">
+        <v>1</v>
+      </c>
+      <c r="X120">
+        <v>6</v>
+      </c>
+      <c r="Y120">
+        <v>4</v>
+      </c>
+      <c r="Z120">
+        <v>6</v>
+      </c>
+      <c r="AA120">
+        <v>5</v>
+      </c>
+      <c r="AB120">
+        <v>4</v>
+      </c>
+      <c r="AC120">
+        <v>5</v>
+      </c>
+      <c r="AD120">
+        <v>4</v>
+      </c>
+      <c r="AE120">
+        <v>5</v>
+      </c>
+      <c r="AF120">
+        <v>4</v>
+      </c>
+      <c r="AG120">
+        <v>5</v>
+      </c>
+      <c r="AH120" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI120">
+        <v>19</v>
+      </c>
+      <c r="AJ120">
+        <v>5</v>
+      </c>
+      <c r="AK120">
+        <v>1</v>
+      </c>
+      <c r="AL120">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -11672,24 +14258,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Post-Questionnaire_RP.xlsx
+++ b/raw-data-prep/raw_data/Post-Questionnaire_RP.xlsx
@@ -538,11 +538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL124"/>
+  <dimension ref="A1:AL120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM120" sqref="AM120"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14229,26 +14229,6 @@
       </c>
       <c r="AL120">
         <v>3.6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data-prep/raw_data/Post-Questionnaire_RP.xlsx
+++ b/raw-data-prep/raw_data/Post-Questionnaire_RP.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhilgard\Documents\GitHub\vg-dissertation\raw-data-prep\raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="150" windowWidth="19155" windowHeight="12270"/>
   </bookViews>
@@ -11,12 +16,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$120</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="54">
   <si>
     <t>Subject</t>
   </si>
@@ -132,43 +140,7 @@
     <t>GPA</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male </t>
-  </si>
-  <si>
-    <t xml:space="preserve">no </t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>4.395 (Highschool)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (middle eastern) </t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>6 (Chinese)</t>
-  </si>
-  <si>
-    <t>6 (asian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (asian) </t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>NA</t>
@@ -180,10 +152,40 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>6 (egyptian/arabic)2</t>
+    <t>5 OR 6</t>
   </si>
   <si>
-    <t>5 OR 6</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t>race_other</t>
+  </si>
+  <si>
+    <t>middle eastern</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>egyptian/arabic</t>
   </si>
 </sst>
 </file>
@@ -232,10 +234,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -246,6 +249,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -294,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,7 +335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,11 +544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL120"/>
+  <dimension ref="A1:AM120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI115" sqref="AI115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +556,7 @@
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,13 +666,16 @@
         <v>35</v>
       </c>
       <c r="AK1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>309</v>
       </c>
@@ -761,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="AH2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI2">
         <v>19</v>
@@ -769,14 +778,14 @@
       <c r="AJ2">
         <v>5</v>
       </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
       <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>310</v>
       </c>
@@ -871,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="AH3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI3">
         <v>18</v>
@@ -879,14 +888,14 @@
       <c r="AJ3">
         <v>5</v>
       </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
       <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>311</v>
       </c>
@@ -909,10 +918,10 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>7</v>
@@ -987,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="AH4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AI4">
         <v>20</v>
@@ -995,14 +1004,15 @@
       <c r="AJ4" s="1">
         <v>5</v>
       </c>
-      <c r="AK4">
-        <v>2</v>
-      </c>
+      <c r="AK4" s="1"/>
       <c r="AL4">
+        <v>2</v>
+      </c>
+      <c r="AM4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>312</v>
       </c>
@@ -1025,10 +1035,10 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -1103,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="AH5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI5">
         <v>18</v>
@@ -1111,14 +1121,14 @@
       <c r="AJ5">
         <v>2</v>
       </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
       <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>3.79</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>313</v>
       </c>
@@ -1141,10 +1151,10 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>7</v>
@@ -1219,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="AH6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI6">
         <v>18</v>
@@ -1227,14 +1237,14 @@
       <c r="AJ6">
         <v>5</v>
       </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
       <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>314</v>
       </c>
@@ -1257,10 +1267,10 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -1335,7 +1345,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI7">
         <v>18</v>
@@ -1343,20 +1353,21 @@
       <c r="AJ7">
         <v>5</v>
       </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
       <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>315</v>
       </c>
       <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>316</v>
       </c>
@@ -1379,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -1457,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="AH9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AI9">
         <v>18</v>
@@ -1465,14 +1476,14 @@
       <c r="AJ9">
         <v>5</v>
       </c>
-      <c r="AK9">
-        <v>1</v>
-      </c>
       <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>317</v>
       </c>
@@ -1495,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>7</v>
@@ -1573,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="AH10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI10">
         <v>19</v>
@@ -1581,14 +1592,14 @@
       <c r="AJ10">
         <v>3</v>
       </c>
-      <c r="AK10">
-        <v>1</v>
-      </c>
       <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>3.3149999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>318</v>
       </c>
@@ -1611,10 +1622,10 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>7</v>
@@ -1689,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="AH11" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI11">
         <v>20</v>
@@ -1697,14 +1708,14 @@
       <c r="AJ11">
         <v>5</v>
       </c>
-      <c r="AK11">
-        <v>2</v>
-      </c>
       <c r="AL11">
+        <v>2</v>
+      </c>
+      <c r="AM11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>319</v>
       </c>
@@ -1727,10 +1738,10 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>7</v>
@@ -1805,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="AH12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI12">
         <v>18</v>
@@ -1813,14 +1824,14 @@
       <c r="AJ12">
         <v>5</v>
       </c>
-      <c r="AK12">
-        <v>1</v>
-      </c>
       <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>320</v>
       </c>
@@ -1843,10 +1854,10 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>7</v>
@@ -1921,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="AH13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI13">
         <v>18</v>
@@ -1929,14 +1940,14 @@
       <c r="AJ13">
         <v>5</v>
       </c>
-      <c r="AK13">
-        <v>1</v>
-      </c>
       <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>321</v>
       </c>
@@ -1959,10 +1970,10 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>7</v>
@@ -2037,7 +2048,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI14">
         <v>18</v>
@@ -2045,14 +2056,14 @@
       <c r="AJ14">
         <v>5</v>
       </c>
-      <c r="AK14">
-        <v>1</v>
-      </c>
       <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>3.96</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>322</v>
       </c>
@@ -2075,10 +2086,10 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>7</v>
@@ -2153,7 +2164,7 @@
         <v>7</v>
       </c>
       <c r="AH15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI15">
         <v>18</v>
@@ -2161,14 +2172,14 @@
       <c r="AJ15">
         <v>5</v>
       </c>
-      <c r="AK15">
-        <v>1</v>
-      </c>
       <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>323</v>
       </c>
@@ -2191,10 +2202,10 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>7</v>
@@ -2269,7 +2280,7 @@
         <v>7</v>
       </c>
       <c r="AH16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI16">
         <v>18</v>
@@ -2277,14 +2288,14 @@
       <c r="AJ16">
         <v>5</v>
       </c>
-      <c r="AK16">
-        <v>1</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>43</v>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>324</v>
       </c>
@@ -2307,10 +2318,10 @@
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -2385,7 +2396,7 @@
         <v>7</v>
       </c>
       <c r="AH17" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI17">
         <v>18</v>
@@ -2393,14 +2404,14 @@
       <c r="AJ17">
         <v>2</v>
       </c>
-      <c r="AK17">
-        <v>1</v>
-      </c>
       <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>325</v>
       </c>
@@ -2423,10 +2434,10 @@
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>6</v>
@@ -2501,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="AH18" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI18">
         <v>19</v>
@@ -2509,14 +2520,14 @@
       <c r="AJ18">
         <v>5</v>
       </c>
-      <c r="AK18">
-        <v>1</v>
-      </c>
       <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>3.82</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>326</v>
       </c>
@@ -2539,10 +2550,10 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>7</v>
@@ -2617,7 +2628,7 @@
         <v>7</v>
       </c>
       <c r="AH19" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AI19">
         <v>18</v>
@@ -2625,14 +2636,14 @@
       <c r="AJ19">
         <v>5</v>
       </c>
-      <c r="AK19">
-        <v>1</v>
-      </c>
       <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>327</v>
       </c>
@@ -2655,10 +2666,10 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2733,22 +2744,25 @@
         <v>6</v>
       </c>
       <c r="AH20" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI20">
         <v>22</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK20">
-        <v>3</v>
+      <c r="AJ20">
+        <v>6</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>49</v>
       </c>
       <c r="AL20">
+        <v>3</v>
+      </c>
+      <c r="AM20">
         <v>2.99</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>328</v>
       </c>
@@ -2771,10 +2785,10 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2846,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="AH21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI21">
         <v>18</v>
@@ -2854,14 +2868,14 @@
       <c r="AJ21">
         <v>5</v>
       </c>
-      <c r="AK21">
-        <v>1</v>
-      </c>
       <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>3.3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>329</v>
       </c>
@@ -2884,10 +2898,10 @@
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>7</v>
@@ -2962,7 +2976,7 @@
         <v>7</v>
       </c>
       <c r="AH22" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI22">
         <v>19</v>
@@ -2970,14 +2984,14 @@
       <c r="AJ22">
         <v>1</v>
       </c>
-      <c r="AK22">
-        <v>2</v>
-      </c>
       <c r="AL22">
+        <v>2</v>
+      </c>
+      <c r="AM22">
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>330</v>
       </c>
@@ -3000,10 +3014,10 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>7</v>
@@ -3078,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="AH23" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI23">
         <v>24</v>
@@ -3086,14 +3100,14 @@
       <c r="AJ23">
         <v>5</v>
       </c>
-      <c r="AK23">
-        <v>4</v>
-      </c>
       <c r="AL23">
+        <v>4</v>
+      </c>
+      <c r="AM23">
         <v>2.7</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>331</v>
       </c>
@@ -3116,10 +3130,10 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>7</v>
@@ -3194,7 +3208,7 @@
         <v>6</v>
       </c>
       <c r="AH24" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AI24">
         <v>19</v>
@@ -3202,14 +3216,14 @@
       <c r="AJ24">
         <v>5</v>
       </c>
-      <c r="AK24">
-        <v>1</v>
-      </c>
       <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>332</v>
       </c>
@@ -3232,10 +3246,10 @@
         <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J25">
         <v>6</v>
@@ -3310,7 +3324,7 @@
         <v>4</v>
       </c>
       <c r="AH25" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI25">
         <v>19</v>
@@ -3318,14 +3332,14 @@
       <c r="AJ25">
         <v>5</v>
       </c>
-      <c r="AK25">
-        <v>2</v>
-      </c>
       <c r="AL25">
+        <v>2</v>
+      </c>
+      <c r="AM25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>333</v>
       </c>
@@ -3348,10 +3362,10 @@
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>6</v>
@@ -3426,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="AH26" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI26">
         <v>18</v>
@@ -3434,14 +3448,14 @@
       <c r="AJ26">
         <v>5</v>
       </c>
-      <c r="AK26">
-        <v>1</v>
-      </c>
       <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>3.8</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>334</v>
       </c>
@@ -3464,10 +3478,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -3542,7 +3556,7 @@
         <v>5</v>
       </c>
       <c r="AH27" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI27">
         <v>18</v>
@@ -3550,14 +3564,14 @@
       <c r="AJ27">
         <v>5</v>
       </c>
-      <c r="AK27">
-        <v>1</v>
-      </c>
       <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>2.9</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>335</v>
       </c>
@@ -3580,10 +3594,10 @@
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>7</v>
@@ -3658,7 +3672,7 @@
         <v>6</v>
       </c>
       <c r="AH28" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI28">
         <v>18</v>
@@ -3666,14 +3680,14 @@
       <c r="AJ28">
         <v>5</v>
       </c>
-      <c r="AK28">
-        <v>1</v>
-      </c>
       <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>336</v>
       </c>
@@ -3696,10 +3710,10 @@
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>7</v>
@@ -3774,7 +3788,7 @@
         <v>6</v>
       </c>
       <c r="AH29" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI29">
         <v>20</v>
@@ -3782,14 +3796,14 @@
       <c r="AJ29">
         <v>5</v>
       </c>
-      <c r="AK29">
-        <v>3</v>
-      </c>
       <c r="AL29">
+        <v>3</v>
+      </c>
+      <c r="AM29">
         <v>3.06</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>337</v>
       </c>
@@ -3812,10 +3826,10 @@
         <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>7</v>
@@ -3890,7 +3904,7 @@
         <v>6</v>
       </c>
       <c r="AH30" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI30">
         <v>18</v>
@@ -3898,14 +3912,14 @@
       <c r="AJ30">
         <v>5</v>
       </c>
-      <c r="AK30">
-        <v>1</v>
-      </c>
       <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>338</v>
       </c>
@@ -3928,10 +3942,10 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>6</v>
@@ -4006,7 +4020,7 @@
         <v>5</v>
       </c>
       <c r="AH31" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI31">
         <v>18</v>
@@ -4014,14 +4028,14 @@
       <c r="AJ31">
         <v>5</v>
       </c>
-      <c r="AK31">
-        <v>1</v>
-      </c>
       <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>3.8</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>339</v>
       </c>
@@ -4044,10 +4058,10 @@
         <v>7</v>
       </c>
       <c r="H32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>6</v>
@@ -4122,7 +4136,7 @@
         <v>5</v>
       </c>
       <c r="AH32" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AI32">
         <v>18</v>
@@ -4130,14 +4144,14 @@
       <c r="AJ32">
         <v>5</v>
       </c>
-      <c r="AK32">
-        <v>1</v>
-      </c>
       <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>340</v>
       </c>
@@ -4160,10 +4174,10 @@
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>7</v>
@@ -4238,7 +4252,7 @@
         <v>6</v>
       </c>
       <c r="AH33" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI33">
         <v>18</v>
@@ -4246,19 +4260,19 @@
       <c r="AJ33">
         <v>5</v>
       </c>
-      <c r="AK33">
-        <v>1</v>
-      </c>
       <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>342</v>
       </c>
@@ -4281,10 +4295,10 @@
         <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>7</v>
@@ -4367,14 +4381,14 @@
       <c r="AJ35">
         <v>5</v>
       </c>
-      <c r="AK35">
-        <v>1</v>
-      </c>
       <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>343</v>
       </c>
@@ -4397,10 +4411,10 @@
         <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>7</v>
@@ -4475,7 +4489,7 @@
         <v>5</v>
       </c>
       <c r="AH36" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI36">
         <v>18</v>
@@ -4483,14 +4497,14 @@
       <c r="AJ36">
         <v>5</v>
       </c>
-      <c r="AK36">
-        <v>1</v>
-      </c>
       <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>344</v>
       </c>
@@ -4513,10 +4527,10 @@
         <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>6</v>
@@ -4591,7 +4605,7 @@
         <v>7</v>
       </c>
       <c r="AH37" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI37">
         <v>5</v>
@@ -4599,11 +4613,11 @@
       <c r="AJ37">
         <v>1</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>345</v>
       </c>
@@ -4626,10 +4640,10 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>7</v>
@@ -4704,7 +4718,7 @@
         <v>7</v>
       </c>
       <c r="AH38" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI38">
         <v>18</v>
@@ -4712,14 +4726,14 @@
       <c r="AJ38">
         <v>5</v>
       </c>
-      <c r="AK38">
-        <v>1</v>
-      </c>
       <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>3.7</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>346</v>
       </c>
@@ -4742,10 +4756,10 @@
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>7</v>
@@ -4820,7 +4834,7 @@
         <v>6</v>
       </c>
       <c r="AH39" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI39">
         <v>18</v>
@@ -4828,14 +4842,14 @@
       <c r="AJ39">
         <v>1</v>
       </c>
-      <c r="AK39">
-        <v>1</v>
-      </c>
       <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>3.79</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>347</v>
       </c>
@@ -4858,10 +4872,10 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>7</v>
@@ -4936,7 +4950,7 @@
         <v>5</v>
       </c>
       <c r="AH40" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI40">
         <v>18</v>
@@ -4944,14 +4958,14 @@
       <c r="AJ40">
         <v>2</v>
       </c>
-      <c r="AK40">
-        <v>1</v>
-      </c>
       <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>3.35</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>348</v>
       </c>
@@ -4974,10 +4988,10 @@
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>3</v>
@@ -5052,7 +5066,7 @@
         <v>5</v>
       </c>
       <c r="AH41" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI41">
         <v>18</v>
@@ -5060,14 +5074,14 @@
       <c r="AJ41">
         <v>5</v>
       </c>
-      <c r="AK41">
-        <v>1</v>
-      </c>
       <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>349</v>
       </c>
@@ -5090,10 +5104,10 @@
         <v>6</v>
       </c>
       <c r="H42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>6</v>
@@ -5168,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="AH42" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI42">
         <v>19</v>
@@ -5176,14 +5190,14 @@
       <c r="AJ42">
         <v>5</v>
       </c>
-      <c r="AK42">
-        <v>1</v>
-      </c>
       <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>3.8</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>350</v>
       </c>
@@ -5206,10 +5220,10 @@
         <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>6</v>
@@ -5284,7 +5298,7 @@
         <v>6</v>
       </c>
       <c r="AH43" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI43">
         <v>18</v>
@@ -5292,14 +5306,15 @@
       <c r="AJ43" s="1">
         <v>5</v>
       </c>
-      <c r="AK43">
-        <v>1</v>
-      </c>
+      <c r="AK43" s="1"/>
       <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>351</v>
       </c>
@@ -5322,10 +5337,10 @@
         <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>7</v>
@@ -5400,7 +5415,7 @@
         <v>7</v>
       </c>
       <c r="AH44" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI44">
         <v>18</v>
@@ -5408,14 +5423,14 @@
       <c r="AJ44">
         <v>5</v>
       </c>
-      <c r="AK44">
-        <v>1</v>
-      </c>
       <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>3.2</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>352</v>
       </c>
@@ -5438,10 +5453,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -5516,7 +5531,7 @@
         <v>7</v>
       </c>
       <c r="AH45" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI45">
         <v>19</v>
@@ -5524,14 +5539,14 @@
       <c r="AJ45">
         <v>5</v>
       </c>
-      <c r="AK45">
-        <v>1</v>
-      </c>
       <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>3.5</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>353</v>
       </c>
@@ -5554,10 +5569,10 @@
         <v>7</v>
       </c>
       <c r="H46" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J46">
         <v>7</v>
@@ -5632,7 +5647,7 @@
         <v>6</v>
       </c>
       <c r="AH46" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI46">
         <v>18</v>
@@ -5640,14 +5655,14 @@
       <c r="AJ46">
         <v>5</v>
       </c>
-      <c r="AK46">
-        <v>1</v>
-      </c>
       <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>3.7</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>354</v>
       </c>
@@ -5670,10 +5685,10 @@
         <v>7</v>
       </c>
       <c r="H47" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>6</v>
@@ -5748,7 +5763,7 @@
         <v>6</v>
       </c>
       <c r="AH47" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI47">
         <v>19</v>
@@ -5756,14 +5771,14 @@
       <c r="AJ47">
         <v>5</v>
       </c>
-      <c r="AK47">
-        <v>1</v>
-      </c>
       <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>3.75</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>355</v>
       </c>
@@ -5786,10 +5801,10 @@
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>7</v>
@@ -5864,7 +5879,7 @@
         <v>6</v>
       </c>
       <c r="AH48" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI48">
         <v>19</v>
@@ -5872,14 +5887,14 @@
       <c r="AJ48">
         <v>5</v>
       </c>
-      <c r="AK48">
-        <v>1</v>
-      </c>
       <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>3.9</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>356</v>
       </c>
@@ -5902,10 +5917,10 @@
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J49">
         <v>6</v>
@@ -5980,7 +5995,7 @@
         <v>5</v>
       </c>
       <c r="AH49" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI49">
         <v>19</v>
@@ -5988,14 +6003,14 @@
       <c r="AJ49">
         <v>5</v>
       </c>
-      <c r="AK49">
-        <v>2</v>
-      </c>
       <c r="AL49">
+        <v>2</v>
+      </c>
+      <c r="AM49">
         <v>2.8</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>357</v>
       </c>
@@ -6018,10 +6033,10 @@
         <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J50">
         <v>7</v>
@@ -6096,22 +6111,25 @@
         <v>1</v>
       </c>
       <c r="AH50" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI50">
         <v>18</v>
       </c>
-      <c r="AJ50" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK50">
-        <v>1</v>
+      <c r="AJ50">
+        <v>6</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>50</v>
       </c>
       <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>358</v>
       </c>
@@ -6134,10 +6152,10 @@
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -6212,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="AH51" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI51">
         <v>18</v>
@@ -6220,14 +6238,14 @@
       <c r="AJ51">
         <v>5</v>
       </c>
-      <c r="AK51">
-        <v>1</v>
-      </c>
       <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>2.8</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>359</v>
       </c>
@@ -6250,10 +6268,10 @@
         <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>7</v>
@@ -6328,7 +6346,7 @@
         <v>7</v>
       </c>
       <c r="AH52" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI52">
         <v>18</v>
@@ -6336,14 +6354,14 @@
       <c r="AJ52">
         <v>5</v>
       </c>
-      <c r="AK52">
-        <v>1</v>
-      </c>
       <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>3.8</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>360</v>
       </c>
@@ -6366,10 +6384,10 @@
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J53">
         <v>5</v>
@@ -6444,7 +6462,7 @@
         <v>7</v>
       </c>
       <c r="AH53" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI53">
         <v>19</v>
@@ -6452,14 +6470,14 @@
       <c r="AJ53">
         <v>5</v>
       </c>
-      <c r="AK53">
-        <v>1</v>
-      </c>
       <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>2.9</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>361</v>
       </c>
@@ -6482,10 +6500,10 @@
         <v>7</v>
       </c>
       <c r="H54" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J54">
         <v>7</v>
@@ -6560,7 +6578,7 @@
         <v>7</v>
       </c>
       <c r="AH54" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI54">
         <v>21</v>
@@ -6568,14 +6586,14 @@
       <c r="AJ54">
         <v>3</v>
       </c>
-      <c r="AK54">
-        <v>3</v>
-      </c>
       <c r="AL54">
+        <v>3</v>
+      </c>
+      <c r="AM54">
         <v>2.9</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>362</v>
       </c>
@@ -6598,10 +6616,10 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J55">
         <v>7</v>
@@ -6676,7 +6694,7 @@
         <v>7</v>
       </c>
       <c r="AH55" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI55">
         <v>19</v>
@@ -6684,14 +6702,14 @@
       <c r="AJ55">
         <v>5</v>
       </c>
-      <c r="AK55">
-        <v>1</v>
-      </c>
       <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>3.2</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>382</v>
       </c>
@@ -6714,10 +6732,10 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -6792,7 +6810,7 @@
         <v>6</v>
       </c>
       <c r="AH56" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI56">
         <v>18</v>
@@ -6800,14 +6818,14 @@
       <c r="AJ56">
         <v>2</v>
       </c>
-      <c r="AK56">
-        <v>1</v>
-      </c>
       <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>2.7</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>383</v>
       </c>
@@ -6830,10 +6848,10 @@
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -6908,7 +6926,7 @@
         <v>7</v>
       </c>
       <c r="AH57" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI57">
         <v>19</v>
@@ -6916,14 +6934,14 @@
       <c r="AJ57">
         <v>5</v>
       </c>
-      <c r="AK57">
-        <v>1</v>
-      </c>
       <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>2.25</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>384</v>
       </c>
@@ -6946,10 +6964,10 @@
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J58">
         <v>6</v>
@@ -7024,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="AH58" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI58">
         <v>19</v>
@@ -7032,14 +7050,14 @@
       <c r="AJ58">
         <v>5</v>
       </c>
-      <c r="AK58">
-        <v>1</v>
-      </c>
       <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>3.99</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>385</v>
       </c>
@@ -7062,10 +7080,10 @@
         <v>6</v>
       </c>
       <c r="H59" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J59">
         <v>7</v>
@@ -7140,22 +7158,25 @@
         <v>7</v>
       </c>
       <c r="AH59" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI59">
         <v>19</v>
       </c>
-      <c r="AJ59" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK59">
-        <v>2</v>
+      <c r="AJ59">
+        <v>6</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>51</v>
       </c>
       <c r="AL59">
+        <v>2</v>
+      </c>
+      <c r="AM59">
         <v>3.8</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>386</v>
       </c>
@@ -7178,10 +7199,10 @@
         <v>7</v>
       </c>
       <c r="H60" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I60" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <v>7</v>
@@ -7256,7 +7277,7 @@
         <v>7</v>
       </c>
       <c r="AH60" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AI60">
         <v>19</v>
@@ -7264,14 +7285,14 @@
       <c r="AJ60">
         <v>5</v>
       </c>
-      <c r="AK60">
-        <v>1</v>
-      </c>
       <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>3.33</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>387</v>
       </c>
@@ -7294,10 +7315,10 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>7</v>
@@ -7372,7 +7393,7 @@
         <v>6</v>
       </c>
       <c r="AH61" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI61">
         <v>19</v>
@@ -7380,14 +7401,14 @@
       <c r="AJ61">
         <v>5</v>
       </c>
-      <c r="AK61">
-        <v>1</v>
-      </c>
       <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>388</v>
       </c>
@@ -7410,10 +7431,10 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J62">
         <v>5</v>
@@ -7488,7 +7509,7 @@
         <v>3</v>
       </c>
       <c r="AH62" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI62">
         <v>19</v>
@@ -7496,14 +7517,14 @@
       <c r="AJ62">
         <v>5</v>
       </c>
-      <c r="AK62">
-        <v>1</v>
-      </c>
       <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>3.3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>389</v>
       </c>
@@ -7526,10 +7547,10 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J63">
         <v>7</v>
@@ -7604,7 +7625,7 @@
         <v>6</v>
       </c>
       <c r="AH63" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI63">
         <v>18</v>
@@ -7612,14 +7633,14 @@
       <c r="AJ63">
         <v>5</v>
       </c>
-      <c r="AK63">
-        <v>1</v>
-      </c>
       <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>3.23</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>390</v>
       </c>
@@ -7642,10 +7663,10 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I64" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>6</v>
@@ -7720,7 +7741,7 @@
         <v>7</v>
       </c>
       <c r="AH64" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AI64">
         <v>19</v>
@@ -7728,14 +7749,14 @@
       <c r="AJ64">
         <v>5</v>
       </c>
-      <c r="AK64">
-        <v>1</v>
-      </c>
       <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>3.4</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>391</v>
       </c>
@@ -7758,10 +7779,10 @@
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J65">
         <v>6</v>
@@ -7836,7 +7857,7 @@
         <v>3</v>
       </c>
       <c r="AH65" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI65">
         <v>18</v>
@@ -7844,14 +7865,14 @@
       <c r="AJ65">
         <v>5</v>
       </c>
-      <c r="AK65">
-        <v>1</v>
-      </c>
       <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>2.9</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>392</v>
       </c>
@@ -7874,10 +7895,10 @@
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J66">
         <v>7</v>
@@ -7952,7 +7973,7 @@
         <v>3</v>
       </c>
       <c r="AH66" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI66">
         <v>18</v>
@@ -7960,14 +7981,14 @@
       <c r="AJ66">
         <v>5</v>
       </c>
-      <c r="AK66">
-        <v>1</v>
-      </c>
       <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>3.5</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>393</v>
       </c>
@@ -7990,10 +8011,10 @@
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I67" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J67">
         <v>7</v>
@@ -8068,7 +8089,7 @@
         <v>7</v>
       </c>
       <c r="AH67" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI67">
         <v>20</v>
@@ -8076,14 +8097,14 @@
       <c r="AJ67">
         <v>5</v>
       </c>
-      <c r="AK67">
-        <v>3</v>
-      </c>
       <c r="AL67">
+        <v>3</v>
+      </c>
+      <c r="AM67">
         <v>3.1</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>394</v>
       </c>
@@ -8106,10 +8127,10 @@
         <v>7</v>
       </c>
       <c r="H68" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>7</v>
@@ -8184,7 +8205,7 @@
         <v>7</v>
       </c>
       <c r="AH68" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI68">
         <v>19</v>
@@ -8192,14 +8213,14 @@
       <c r="AJ68">
         <v>3</v>
       </c>
-      <c r="AK68">
-        <v>1</v>
-      </c>
       <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>2.8</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>395</v>
       </c>
@@ -8222,10 +8243,10 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I69" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <v>7</v>
@@ -8300,7 +8321,7 @@
         <v>7</v>
       </c>
       <c r="AH69" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI69">
         <v>18</v>
@@ -8308,14 +8329,14 @@
       <c r="AJ69">
         <v>5</v>
       </c>
-      <c r="AK69">
-        <v>1</v>
-      </c>
       <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>3.7</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>396</v>
       </c>
@@ -8338,10 +8359,10 @@
         <v>2</v>
       </c>
       <c r="H70" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I70" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>5</v>
@@ -8416,7 +8437,7 @@
         <v>5</v>
       </c>
       <c r="AH70" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI70">
         <v>19</v>
@@ -8424,14 +8445,14 @@
       <c r="AJ70">
         <v>5</v>
       </c>
-      <c r="AK70">
-        <v>1</v>
-      </c>
       <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>3.25</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>397</v>
       </c>
@@ -8454,10 +8475,10 @@
         <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I71" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J71">
         <v>7</v>
@@ -8532,7 +8553,7 @@
         <v>7</v>
       </c>
       <c r="AH71" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI71">
         <v>20</v>
@@ -8540,14 +8561,14 @@
       <c r="AJ71">
         <v>5</v>
       </c>
-      <c r="AK71">
-        <v>2</v>
-      </c>
       <c r="AL71">
+        <v>2</v>
+      </c>
+      <c r="AM71">
         <v>3.55</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>398</v>
       </c>
@@ -8570,10 +8591,10 @@
         <v>7</v>
       </c>
       <c r="H72" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I72" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>7</v>
@@ -8648,7 +8669,7 @@
         <v>7</v>
       </c>
       <c r="AH72" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI72">
         <v>19</v>
@@ -8656,14 +8677,14 @@
       <c r="AJ72">
         <v>1</v>
       </c>
-      <c r="AK72">
-        <v>1</v>
-      </c>
       <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>3.2</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>399</v>
       </c>
@@ -8686,10 +8707,10 @@
         <v>6</v>
       </c>
       <c r="H73" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J73">
         <v>7</v>
@@ -8764,7 +8785,7 @@
         <v>6</v>
       </c>
       <c r="AH73" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI73">
         <v>19</v>
@@ -8772,14 +8793,14 @@
       <c r="AJ73">
         <v>5</v>
       </c>
-      <c r="AK73">
-        <v>1</v>
-      </c>
       <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>3.5</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>400</v>
       </c>
@@ -8802,10 +8823,10 @@
         <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J74">
         <v>7</v>
@@ -8880,7 +8901,7 @@
         <v>5</v>
       </c>
       <c r="AH74" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI74">
         <v>19</v>
@@ -8888,14 +8909,14 @@
       <c r="AJ74">
         <v>5</v>
       </c>
-      <c r="AK74">
-        <v>1</v>
-      </c>
       <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>3.2</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>401</v>
       </c>
@@ -8918,10 +8939,10 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J75">
         <v>6</v>
@@ -8996,7 +9017,7 @@
         <v>7</v>
       </c>
       <c r="AH75" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AI75">
         <v>18</v>
@@ -9004,14 +9025,14 @@
       <c r="AJ75">
         <v>5</v>
       </c>
-      <c r="AK75">
-        <v>1</v>
-      </c>
       <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>402</v>
       </c>
@@ -9034,10 +9055,10 @@
         <v>7</v>
       </c>
       <c r="H76" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I76" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J76">
         <v>5</v>
@@ -9112,7 +9133,7 @@
         <v>2</v>
       </c>
       <c r="AH76" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AI76">
         <v>18</v>
@@ -9120,14 +9141,14 @@
       <c r="AJ76">
         <v>5</v>
       </c>
-      <c r="AK76">
-        <v>1</v>
-      </c>
       <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>3.8</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>403</v>
       </c>
@@ -9150,10 +9171,10 @@
         <v>7</v>
       </c>
       <c r="H77" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I77" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J77">
         <v>7</v>
@@ -9228,22 +9249,25 @@
         <v>6</v>
       </c>
       <c r="AH77" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI77">
         <v>20</v>
       </c>
-      <c r="AJ77" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK77">
-        <v>1</v>
+      <c r="AJ77">
+        <v>6</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>49</v>
       </c>
       <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>3.2</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>404</v>
       </c>
@@ -9266,10 +9290,10 @@
         <v>7</v>
       </c>
       <c r="H78" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I78" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <v>5</v>
@@ -9344,7 +9368,7 @@
         <v>7</v>
       </c>
       <c r="AH78" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI78">
         <v>21</v>
@@ -9352,14 +9376,14 @@
       <c r="AJ78">
         <v>5</v>
       </c>
-      <c r="AK78">
-        <v>4</v>
-      </c>
       <c r="AL78">
+        <v>4</v>
+      </c>
+      <c r="AM78">
         <v>3.75</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>405</v>
       </c>
@@ -9382,10 +9406,10 @@
         <v>7</v>
       </c>
       <c r="H79" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J79">
         <v>7</v>
@@ -9460,7 +9484,7 @@
         <v>5</v>
       </c>
       <c r="AH79" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI79">
         <v>18</v>
@@ -9468,14 +9492,14 @@
       <c r="AJ79">
         <v>1</v>
       </c>
-      <c r="AK79">
-        <v>1</v>
-      </c>
       <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>2.8</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>406</v>
       </c>
@@ -9498,10 +9522,10 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -9576,7 +9600,7 @@
         <v>7</v>
       </c>
       <c r="AH80" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI80">
         <v>19</v>
@@ -9584,14 +9608,14 @@
       <c r="AJ80">
         <v>1</v>
       </c>
-      <c r="AK80">
-        <v>1</v>
-      </c>
       <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>407</v>
       </c>
@@ -9614,10 +9638,10 @@
         <v>7</v>
       </c>
       <c r="H81" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I81" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <v>7</v>
@@ -9692,7 +9716,7 @@
         <v>2</v>
       </c>
       <c r="AH81" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI81">
         <v>18</v>
@@ -9700,14 +9724,14 @@
       <c r="AJ81">
         <v>1</v>
       </c>
-      <c r="AK81" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL81">
+      <c r="AL81" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>3.7</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>408</v>
       </c>
@@ -9730,10 +9754,10 @@
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J82">
         <v>7</v>
@@ -9808,7 +9832,7 @@
         <v>7</v>
       </c>
       <c r="AH82" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI82">
         <v>19</v>
@@ -9816,14 +9840,14 @@
       <c r="AJ82">
         <v>5</v>
       </c>
-      <c r="AK82">
-        <v>1</v>
-      </c>
       <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>409</v>
       </c>
@@ -9846,10 +9870,10 @@
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J83">
         <v>6</v>
@@ -9924,7 +9948,7 @@
         <v>7</v>
       </c>
       <c r="AH83" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI83">
         <v>19</v>
@@ -9932,14 +9956,14 @@
       <c r="AJ83">
         <v>1</v>
       </c>
-      <c r="AK83">
-        <v>1</v>
-      </c>
       <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>410</v>
       </c>
@@ -9962,10 +9986,10 @@
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>6</v>
@@ -10040,7 +10064,7 @@
         <v>7</v>
       </c>
       <c r="AH84" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI84">
         <v>18</v>
@@ -10048,14 +10072,14 @@
       <c r="AJ84">
         <v>5</v>
       </c>
-      <c r="AK84">
-        <v>1</v>
-      </c>
       <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>3.5</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>411</v>
       </c>
@@ -10078,10 +10102,10 @@
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>7</v>
@@ -10156,22 +10180,25 @@
         <v>4</v>
       </c>
       <c r="AH85" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI85">
         <v>20</v>
       </c>
-      <c r="AJ85" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK85">
-        <v>1</v>
+      <c r="AJ85">
+        <v>6</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>52</v>
       </c>
       <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>3.4</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>412</v>
       </c>
@@ -10194,10 +10221,10 @@
         <v>5</v>
       </c>
       <c r="H86" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J86">
         <v>6</v>
@@ -10272,7 +10299,7 @@
         <v>6</v>
       </c>
       <c r="AH86" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI86">
         <v>19</v>
@@ -10280,14 +10307,14 @@
       <c r="AJ86">
         <v>5</v>
       </c>
-      <c r="AK86">
-        <v>1</v>
-      </c>
       <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>413</v>
       </c>
@@ -10310,10 +10337,10 @@
         <v>5</v>
       </c>
       <c r="H87" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J87">
         <v>7</v>
@@ -10388,7 +10415,7 @@
         <v>6</v>
       </c>
       <c r="AH87" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI87">
         <v>19</v>
@@ -10396,14 +10423,14 @@
       <c r="AJ87">
         <v>5</v>
       </c>
-      <c r="AK87">
-        <v>2</v>
-      </c>
       <c r="AL87">
+        <v>2</v>
+      </c>
+      <c r="AM87">
         <v>2.8</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>414</v>
       </c>
@@ -10426,10 +10453,10 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -10504,7 +10531,7 @@
         <v>5</v>
       </c>
       <c r="AH88" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI88">
         <v>19</v>
@@ -10512,14 +10539,14 @@
       <c r="AJ88">
         <v>5</v>
       </c>
-      <c r="AK88">
-        <v>1</v>
-      </c>
       <c r="AL88">
         <v>1</v>
       </c>
+      <c r="AM88">
+        <v>1</v>
+      </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>415</v>
       </c>
@@ -10542,10 +10569,10 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J89">
         <v>7</v>
@@ -10620,7 +10647,7 @@
         <v>7</v>
       </c>
       <c r="AH89" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI89">
         <v>18</v>
@@ -10628,14 +10655,14 @@
       <c r="AJ89">
         <v>5</v>
       </c>
-      <c r="AK89">
-        <v>1</v>
-      </c>
       <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>2.7</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>416</v>
       </c>
@@ -10658,10 +10685,10 @@
         <v>7</v>
       </c>
       <c r="H90" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>7</v>
@@ -10736,7 +10763,7 @@
         <v>5</v>
       </c>
       <c r="AH90" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI90">
         <v>18</v>
@@ -10744,14 +10771,14 @@
       <c r="AJ90">
         <v>5</v>
       </c>
-      <c r="AK90">
-        <v>1</v>
-      </c>
       <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>3.95</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>417</v>
       </c>
@@ -10774,10 +10801,10 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>7</v>
@@ -10852,7 +10879,7 @@
         <v>7</v>
       </c>
       <c r="AH91" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI91">
         <v>19</v>
@@ -10860,14 +10887,14 @@
       <c r="AJ91">
         <v>5</v>
       </c>
-      <c r="AK91">
-        <v>1</v>
-      </c>
       <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>418</v>
       </c>
@@ -10890,10 +10917,10 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>7</v>
@@ -10968,7 +10995,7 @@
         <v>7</v>
       </c>
       <c r="AH92" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI92">
         <v>19</v>
@@ -10976,14 +11003,14 @@
       <c r="AJ92">
         <v>1</v>
       </c>
-      <c r="AK92">
-        <v>1</v>
-      </c>
       <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>3.6</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>419</v>
       </c>
@@ -11006,10 +11033,10 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J93">
         <v>7</v>
@@ -11084,7 +11111,7 @@
         <v>7</v>
       </c>
       <c r="AH93" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI93">
         <v>23</v>
@@ -11092,14 +11119,14 @@
       <c r="AJ93">
         <v>5</v>
       </c>
-      <c r="AK93">
-        <v>3</v>
-      </c>
       <c r="AL93">
         <v>3</v>
       </c>
+      <c r="AM93">
+        <v>3</v>
+      </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>420</v>
       </c>
@@ -11122,100 +11149,100 @@
         <v>5</v>
       </c>
       <c r="H94" t="s">
+        <v>44</v>
+      </c>
+      <c r="I94" t="s">
+        <v>44</v>
+      </c>
+      <c r="J94">
+        <v>6</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+      <c r="L94">
+        <v>6</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>3</v>
+      </c>
+      <c r="Q94">
+        <v>4</v>
+      </c>
+      <c r="R94">
+        <v>6</v>
+      </c>
+      <c r="S94">
+        <v>6</v>
+      </c>
+      <c r="T94">
+        <v>5</v>
+      </c>
+      <c r="U94">
+        <v>4</v>
+      </c>
+      <c r="V94">
+        <v>3</v>
+      </c>
+      <c r="W94">
+        <v>3</v>
+      </c>
+      <c r="X94">
+        <v>6</v>
+      </c>
+      <c r="Y94">
+        <v>3</v>
+      </c>
+      <c r="Z94">
+        <v>3</v>
+      </c>
+      <c r="AA94">
+        <v>6</v>
+      </c>
+      <c r="AB94" t="s">
         <v>39</v>
       </c>
-      <c r="I94" t="s">
+      <c r="AC94" t="s">
         <v>39</v>
       </c>
-      <c r="J94">
-        <v>6</v>
-      </c>
-      <c r="K94">
-        <v>4</v>
-      </c>
-      <c r="L94">
-        <v>6</v>
-      </c>
-      <c r="M94">
-        <v>2</v>
-      </c>
-      <c r="N94">
-        <v>3</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
-      <c r="P94">
-        <v>3</v>
-      </c>
-      <c r="Q94">
-        <v>4</v>
-      </c>
-      <c r="R94">
-        <v>6</v>
-      </c>
-      <c r="S94">
-        <v>6</v>
-      </c>
-      <c r="T94">
-        <v>5</v>
-      </c>
-      <c r="U94">
-        <v>4</v>
-      </c>
-      <c r="V94">
-        <v>3</v>
-      </c>
-      <c r="W94">
-        <v>3</v>
-      </c>
-      <c r="X94">
-        <v>6</v>
-      </c>
-      <c r="Y94">
-        <v>3</v>
-      </c>
-      <c r="Z94">
-        <v>3</v>
-      </c>
-      <c r="AA94">
-        <v>6</v>
-      </c>
-      <c r="AB94" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC94" t="s">
-        <v>51</v>
-      </c>
       <c r="AD94" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AE94" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AF94" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AG94" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AH94" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI94" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AJ94" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK94" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AL94" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>421</v>
       </c>
@@ -11238,10 +11265,10 @@
         <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I95" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J95">
         <v>7</v>
@@ -11316,7 +11343,7 @@
         <v>7</v>
       </c>
       <c r="AH95" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI95">
         <v>18</v>
@@ -11324,14 +11351,14 @@
       <c r="AJ95">
         <v>5</v>
       </c>
-      <c r="AK95">
-        <v>1</v>
-      </c>
       <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>3.6</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>422</v>
       </c>
@@ -11354,10 +11381,10 @@
         <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>7</v>
@@ -11432,7 +11459,7 @@
         <v>5</v>
       </c>
       <c r="AH96" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI96">
         <v>19</v>
@@ -11440,14 +11467,14 @@
       <c r="AJ96">
         <v>5</v>
       </c>
-      <c r="AK96">
-        <v>1</v>
-      </c>
       <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>3.6</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>423</v>
       </c>
@@ -11470,10 +11497,10 @@
         <v>7</v>
       </c>
       <c r="H97" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J97">
         <v>7</v>
@@ -11548,7 +11575,7 @@
         <v>6</v>
       </c>
       <c r="AH97" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI97">
         <v>19</v>
@@ -11556,14 +11583,14 @@
       <c r="AJ97">
         <v>5</v>
       </c>
-      <c r="AK97">
-        <v>2</v>
-      </c>
       <c r="AL97">
+        <v>2</v>
+      </c>
+      <c r="AM97">
         <v>2.9</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>424</v>
       </c>
@@ -11586,10 +11613,10 @@
         <v>3</v>
       </c>
       <c r="H98" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>6</v>
@@ -11664,7 +11691,7 @@
         <v>7</v>
       </c>
       <c r="AH98" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI98">
         <v>19</v>
@@ -11672,14 +11699,14 @@
       <c r="AJ98">
         <v>5</v>
       </c>
-      <c r="AK98">
-        <v>1</v>
-      </c>
       <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>3.3</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>425</v>
       </c>
@@ -11702,10 +11729,10 @@
         <v>2</v>
       </c>
       <c r="H99" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J99">
         <v>6</v>
@@ -11780,7 +11807,7 @@
         <v>6</v>
       </c>
       <c r="AH99" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI99">
         <v>19</v>
@@ -11788,14 +11815,14 @@
       <c r="AJ99">
         <v>5</v>
       </c>
-      <c r="AK99">
-        <v>2</v>
-      </c>
       <c r="AL99">
+        <v>2</v>
+      </c>
+      <c r="AM99">
         <v>2.85</v>
       </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>426</v>
       </c>
@@ -11818,10 +11845,10 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J100">
         <v>6</v>
@@ -11896,7 +11923,7 @@
         <v>7</v>
       </c>
       <c r="AH100" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI100">
         <v>19</v>
@@ -11904,14 +11931,14 @@
       <c r="AJ100">
         <v>5</v>
       </c>
-      <c r="AK100">
-        <v>1</v>
-      </c>
       <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>427</v>
       </c>
@@ -11934,10 +11961,10 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I101" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -12012,7 +12039,7 @@
         <v>7</v>
       </c>
       <c r="AH101" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI101">
         <v>21</v>
@@ -12020,14 +12047,14 @@
       <c r="AJ101">
         <v>5</v>
       </c>
-      <c r="AK101">
-        <v>4</v>
-      </c>
       <c r="AL101">
+        <v>4</v>
+      </c>
+      <c r="AM101">
         <v>3.4</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>428</v>
       </c>
@@ -12050,10 +12077,10 @@
         <v>4</v>
       </c>
       <c r="H102" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I102" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>3</v>
@@ -12128,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="AH102" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI102">
         <v>21</v>
@@ -12136,14 +12163,14 @@
       <c r="AJ102">
         <v>5</v>
       </c>
-      <c r="AK102">
-        <v>3</v>
-      </c>
       <c r="AL102">
+        <v>3</v>
+      </c>
+      <c r="AM102">
         <v>3.61</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>429</v>
       </c>
@@ -12166,10 +12193,10 @@
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I103" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J103">
         <v>5</v>
@@ -12244,7 +12271,7 @@
         <v>3</v>
       </c>
       <c r="AH103" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI103">
         <v>19</v>
@@ -12252,14 +12279,14 @@
       <c r="AJ103">
         <v>5</v>
       </c>
-      <c r="AK103">
-        <v>1</v>
-      </c>
       <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>3.25</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>430</v>
       </c>
@@ -12282,10 +12309,10 @@
         <v>2</v>
       </c>
       <c r="H104" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I104" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>7</v>
@@ -12306,7 +12333,7 @@
         <v>7</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -12360,7 +12387,7 @@
         <v>7</v>
       </c>
       <c r="AH104" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI104">
         <v>19</v>
@@ -12368,14 +12395,14 @@
       <c r="AJ104">
         <v>5</v>
       </c>
-      <c r="AK104">
-        <v>1</v>
-      </c>
       <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>3.7120000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>431</v>
       </c>
@@ -12398,10 +12425,10 @@
         <v>5</v>
       </c>
       <c r="H105" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J105">
         <v>7</v>
@@ -12476,7 +12503,7 @@
         <v>6</v>
       </c>
       <c r="AH105" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI105">
         <v>18</v>
@@ -12484,14 +12511,14 @@
       <c r="AJ105">
         <v>5</v>
       </c>
-      <c r="AK105">
-        <v>1</v>
-      </c>
       <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>3.8</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>432</v>
       </c>
@@ -12514,10 +12541,10 @@
         <v>7</v>
       </c>
       <c r="H106" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I106" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J106">
         <v>7</v>
@@ -12592,7 +12619,7 @@
         <v>7</v>
       </c>
       <c r="AH106" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI106">
         <v>20</v>
@@ -12600,14 +12627,14 @@
       <c r="AJ106">
         <v>5</v>
       </c>
-      <c r="AK106">
-        <v>2</v>
-      </c>
       <c r="AL106">
+        <v>2</v>
+      </c>
+      <c r="AM106">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>433</v>
       </c>
@@ -12630,10 +12657,10 @@
         <v>7</v>
       </c>
       <c r="H107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J107">
         <v>7</v>
@@ -12708,7 +12735,7 @@
         <v>7</v>
       </c>
       <c r="AH107" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI107">
         <v>19</v>
@@ -12716,14 +12743,14 @@
       <c r="AJ107">
         <v>5</v>
       </c>
-      <c r="AK107">
-        <v>1</v>
-      </c>
       <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>2.9</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>434</v>
       </c>
@@ -12746,10 +12773,10 @@
         <v>4</v>
       </c>
       <c r="H108" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I108" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <v>7</v>
@@ -12824,7 +12851,7 @@
         <v>7</v>
       </c>
       <c r="AH108" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI108">
         <v>21</v>
@@ -12832,14 +12859,14 @@
       <c r="AJ108">
         <v>5</v>
       </c>
-      <c r="AK108">
-        <v>3</v>
-      </c>
       <c r="AL108">
+        <v>3</v>
+      </c>
+      <c r="AM108">
         <v>2.7</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>435</v>
       </c>
@@ -12862,10 +12889,10 @@
         <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I109" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J109">
         <v>7</v>
@@ -12940,7 +12967,7 @@
         <v>7</v>
       </c>
       <c r="AH109" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI109">
         <v>20</v>
@@ -12948,14 +12975,14 @@
       <c r="AJ109">
         <v>5</v>
       </c>
-      <c r="AK109">
-        <v>2</v>
-      </c>
       <c r="AL109">
+        <v>2</v>
+      </c>
+      <c r="AM109">
         <v>3.44</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>436</v>
       </c>
@@ -12978,10 +13005,10 @@
         <v>4</v>
       </c>
       <c r="H110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -13064,14 +13091,14 @@
       <c r="AJ110">
         <v>5</v>
       </c>
-      <c r="AK110">
-        <v>1</v>
-      </c>
       <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>437</v>
       </c>
@@ -13094,10 +13121,10 @@
         <v>5</v>
       </c>
       <c r="H111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J111">
         <v>7</v>
@@ -13172,7 +13199,7 @@
         <v>7</v>
       </c>
       <c r="AH111" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI111">
         <v>18</v>
@@ -13180,14 +13207,14 @@
       <c r="AJ111">
         <v>5</v>
       </c>
-      <c r="AK111">
-        <v>1</v>
-      </c>
       <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>3.8</v>
       </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>438</v>
       </c>
@@ -13210,10 +13237,10 @@
         <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I112" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>5</v>
@@ -13288,7 +13315,7 @@
         <v>2</v>
       </c>
       <c r="AH112" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI112">
         <v>19</v>
@@ -13296,14 +13323,14 @@
       <c r="AJ112">
         <v>5</v>
       </c>
-      <c r="AK112">
-        <v>1</v>
-      </c>
       <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>439</v>
       </c>
@@ -13326,10 +13353,10 @@
         <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I113" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>7</v>
@@ -13404,7 +13431,7 @@
         <v>5</v>
       </c>
       <c r="AH113" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI113">
         <v>18</v>
@@ -13412,14 +13439,14 @@
       <c r="AJ113">
         <v>5</v>
       </c>
-      <c r="AK113">
-        <v>1</v>
-      </c>
       <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>3.5</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>440</v>
       </c>
@@ -13442,10 +13469,10 @@
         <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>6</v>
@@ -13520,7 +13547,7 @@
         <v>4</v>
       </c>
       <c r="AH114" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI114">
         <v>21</v>
@@ -13528,14 +13555,14 @@
       <c r="AJ114">
         <v>5</v>
       </c>
-      <c r="AK114">
-        <v>3</v>
-      </c>
       <c r="AL114">
         <v>3</v>
       </c>
+      <c r="AM114">
+        <v>3</v>
+      </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>441</v>
       </c>
@@ -13558,10 +13585,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I115" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J115">
         <v>7</v>
@@ -13636,22 +13663,25 @@
         <v>6</v>
       </c>
       <c r="AH115" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI115">
         <v>19</v>
       </c>
-      <c r="AJ115" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK115">
-        <v>2</v>
+      <c r="AJ115">
+        <v>6</v>
+      </c>
+      <c r="AK115" t="s">
+        <v>53</v>
       </c>
       <c r="AL115">
+        <v>2</v>
+      </c>
+      <c r="AM115">
         <v>3.52</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>442</v>
       </c>
@@ -13674,10 +13704,10 @@
         <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J116">
         <v>7</v>
@@ -13719,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="W116" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="X116">
         <v>7</v>
@@ -13760,14 +13790,14 @@
       <c r="AJ116">
         <v>5</v>
       </c>
-      <c r="AK116">
-        <v>3</v>
-      </c>
       <c r="AL116">
         <v>3</v>
       </c>
+      <c r="AM116">
+        <v>3</v>
+      </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>443</v>
       </c>
@@ -13790,10 +13820,10 @@
         <v>6</v>
       </c>
       <c r="H117" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I117" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J117">
         <v>6</v>
@@ -13868,7 +13898,7 @@
         <v>7</v>
       </c>
       <c r="AH117" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI117">
         <v>19</v>
@@ -13876,14 +13906,14 @@
       <c r="AJ117">
         <v>2</v>
       </c>
-      <c r="AK117">
-        <v>1</v>
-      </c>
       <c r="AL117">
+        <v>1</v>
+      </c>
+      <c r="AM117">
         <v>3.1</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>444</v>
       </c>
@@ -13906,10 +13936,10 @@
         <v>5</v>
       </c>
       <c r="H118" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I118" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J118">
         <v>7</v>
@@ -13984,7 +14014,7 @@
         <v>7</v>
       </c>
       <c r="AH118" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI118">
         <v>19</v>
@@ -13992,14 +14022,14 @@
       <c r="AJ118">
         <v>5</v>
       </c>
-      <c r="AK118">
-        <v>1</v>
-      </c>
       <c r="AL118">
+        <v>1</v>
+      </c>
+      <c r="AM118">
         <v>3.8</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>445</v>
       </c>
@@ -14022,10 +14052,10 @@
         <v>5</v>
       </c>
       <c r="H119" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I119" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J119">
         <v>5</v>
@@ -14100,7 +14130,7 @@
         <v>4</v>
       </c>
       <c r="AH119" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI119">
         <v>20</v>
@@ -14108,14 +14138,14 @@
       <c r="AJ119">
         <v>5</v>
       </c>
-      <c r="AK119">
-        <v>2</v>
-      </c>
       <c r="AL119">
+        <v>2</v>
+      </c>
+      <c r="AM119">
         <v>2.8</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>446</v>
       </c>
@@ -14138,10 +14168,10 @@
         <v>5</v>
       </c>
       <c r="H120" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I120" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -14216,7 +14246,7 @@
         <v>5</v>
       </c>
       <c r="AH120" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AI120">
         <v>19</v>
@@ -14224,14 +14254,15 @@
       <c r="AJ120">
         <v>5</v>
       </c>
-      <c r="AK120">
-        <v>1</v>
-      </c>
       <c r="AL120">
+        <v>1</v>
+      </c>
+      <c r="AM120">
         <v>3.6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM120"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Post-Questionnaire_RP.xlsx
+++ b/raw-data-prep/raw_data/Post-Questionnaire_RP.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$120</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="49">
   <si>
     <t>Subject</t>
   </si>
@@ -132,58 +135,37 @@
     <t>GPA</t>
   </si>
   <si>
-    <t>male</t>
+    <t>No</t>
   </si>
   <si>
-    <t>no</t>
+    <t xml:space="preserve">No </t>
   </si>
   <si>
-    <t xml:space="preserve">male </t>
+    <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">no </t>
+    <t>Male</t>
   </si>
   <si>
-    <t>yes</t>
+    <t xml:space="preserve">Male </t>
   </si>
   <si>
-    <t>4.395 (Highschool)</t>
+    <t>race_t</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (middle eastern) </t>
+    <t>middle eastern</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>Chinese</t>
   </si>
   <si>
-    <t>MALE</t>
+    <t>asian</t>
   </si>
   <si>
-    <t>6 (Chinese)</t>
+    <t>egyptian/arabic</t>
   </si>
   <si>
-    <t>6 (asian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (asian) </t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>1 and 3</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>6 (egyptian/arabic)2</t>
-  </si>
-  <si>
-    <t>5 OR 6</t>
+    <t>race2</t>
   </si>
 </sst>
 </file>
@@ -235,7 +217,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -538,11 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL120"/>
+  <dimension ref="A1:AN120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL124" sqref="AL124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +532,7 @@
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,13 +642,19 @@
         <v>35</v>
       </c>
       <c r="AK1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>309</v>
       </c>
@@ -761,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="AH2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI2">
         <v>19</v>
@@ -769,14 +757,14 @@
       <c r="AJ2">
         <v>5</v>
       </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-      <c r="AL2">
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>310</v>
       </c>
@@ -871,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="AH3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI3">
         <v>18</v>
@@ -879,14 +867,14 @@
       <c r="AJ3">
         <v>5</v>
       </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-      <c r="AL3">
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>311</v>
       </c>
@@ -909,10 +897,10 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>7</v>
@@ -987,7 +975,7 @@
         <v>6</v>
       </c>
       <c r="AH4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI4">
         <v>20</v>
@@ -995,14 +983,16 @@
       <c r="AJ4" s="1">
         <v>5</v>
       </c>
-      <c r="AK4">
-        <v>2</v>
-      </c>
-      <c r="AL4">
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>312</v>
       </c>
@@ -1025,85 +1015,85 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>6</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>5</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="s">
         <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
-      </c>
-      <c r="R5">
-        <v>7</v>
-      </c>
-      <c r="S5">
-        <v>6</v>
-      </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
-      <c r="U5">
-        <v>5</v>
-      </c>
-      <c r="V5">
-        <v>4</v>
-      </c>
-      <c r="W5">
-        <v>5</v>
-      </c>
-      <c r="X5">
-        <v>6</v>
-      </c>
-      <c r="Y5">
-        <v>3</v>
-      </c>
-      <c r="Z5">
-        <v>2</v>
-      </c>
-      <c r="AA5">
-        <v>5</v>
-      </c>
-      <c r="AB5">
-        <v>2</v>
-      </c>
-      <c r="AC5">
-        <v>6</v>
-      </c>
-      <c r="AD5">
-        <v>4</v>
-      </c>
-      <c r="AE5">
-        <v>5</v>
-      </c>
-      <c r="AF5">
-        <v>2</v>
-      </c>
-      <c r="AG5">
-        <v>5</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>38</v>
       </c>
       <c r="AI5">
         <v>18</v>
@@ -1111,14 +1101,14 @@
       <c r="AJ5">
         <v>2</v>
       </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
         <v>3.79</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>313</v>
       </c>
@@ -1141,10 +1131,10 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>7</v>
@@ -1219,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="AH6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI6">
         <v>18</v>
@@ -1227,14 +1217,14 @@
       <c r="AJ6">
         <v>5</v>
       </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>314</v>
       </c>
@@ -1257,85 +1247,85 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AA7">
+        <v>6</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>6</v>
+      </c>
+      <c r="AD7">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AF7">
+        <v>6</v>
+      </c>
+      <c r="AG7">
+        <v>7</v>
+      </c>
+      <c r="AH7" t="s">
         <v>41</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-      <c r="R7">
-        <v>6</v>
-      </c>
-      <c r="S7">
-        <v>6</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7">
-        <v>2</v>
-      </c>
-      <c r="X7">
-        <v>6</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
-      <c r="Z7">
-        <v>4</v>
-      </c>
-      <c r="AA7">
-        <v>6</v>
-      </c>
-      <c r="AB7">
-        <v>5</v>
-      </c>
-      <c r="AC7">
-        <v>6</v>
-      </c>
-      <c r="AD7">
-        <v>6</v>
-      </c>
-      <c r="AE7">
-        <v>4</v>
-      </c>
-      <c r="AF7">
-        <v>6</v>
-      </c>
-      <c r="AG7">
-        <v>7</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>38</v>
       </c>
       <c r="AI7">
         <v>18</v>
@@ -1343,20 +1333,22 @@
       <c r="AJ7">
         <v>5</v>
       </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>315</v>
       </c>
       <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>316</v>
       </c>
@@ -1379,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -1457,7 +1449,7 @@
         <v>7</v>
       </c>
       <c r="AH9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI9">
         <v>18</v>
@@ -1465,14 +1457,14 @@
       <c r="AJ9">
         <v>5</v>
       </c>
-      <c r="AK9">
-        <v>1</v>
-      </c>
-      <c r="AL9">
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>317</v>
       </c>
@@ -1495,10 +1487,10 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10">
         <v>7</v>
@@ -1573,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="AH10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI10">
         <v>19</v>
@@ -1581,14 +1573,14 @@
       <c r="AJ10">
         <v>3</v>
       </c>
-      <c r="AK10">
-        <v>1</v>
-      </c>
-      <c r="AL10">
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
         <v>3.3149999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>318</v>
       </c>
@@ -1611,10 +1603,10 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>7</v>
@@ -1689,7 +1681,7 @@
         <v>6</v>
       </c>
       <c r="AH11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI11">
         <v>20</v>
@@ -1697,14 +1689,14 @@
       <c r="AJ11">
         <v>5</v>
       </c>
-      <c r="AK11">
-        <v>2</v>
-      </c>
-      <c r="AL11">
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>319</v>
       </c>
@@ -1727,10 +1719,10 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>7</v>
@@ -1805,7 +1797,7 @@
         <v>4</v>
       </c>
       <c r="AH12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI12">
         <v>18</v>
@@ -1813,14 +1805,14 @@
       <c r="AJ12">
         <v>5</v>
       </c>
-      <c r="AK12">
-        <v>1</v>
-      </c>
-      <c r="AL12">
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>320</v>
       </c>
@@ -1843,85 +1835,85 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>7</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>7</v>
+      </c>
+      <c r="AD13">
+        <v>7</v>
+      </c>
+      <c r="AE13">
+        <v>3</v>
+      </c>
+      <c r="AF13">
+        <v>6</v>
+      </c>
+      <c r="AG13">
+        <v>5</v>
+      </c>
+      <c r="AH13" t="s">
         <v>41</v>
-      </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13">
-        <v>7</v>
-      </c>
-      <c r="K13">
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <v>3</v>
-      </c>
-      <c r="R13">
-        <v>6</v>
-      </c>
-      <c r="S13">
-        <v>5</v>
-      </c>
-      <c r="T13">
-        <v>5</v>
-      </c>
-      <c r="U13">
-        <v>5</v>
-      </c>
-      <c r="V13">
-        <v>3</v>
-      </c>
-      <c r="W13">
-        <v>2</v>
-      </c>
-      <c r="X13">
-        <v>7</v>
-      </c>
-      <c r="Y13">
-        <v>2</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-      <c r="AA13">
-        <v>2</v>
-      </c>
-      <c r="AB13">
-        <v>2</v>
-      </c>
-      <c r="AC13">
-        <v>7</v>
-      </c>
-      <c r="AD13">
-        <v>7</v>
-      </c>
-      <c r="AE13">
-        <v>3</v>
-      </c>
-      <c r="AF13">
-        <v>6</v>
-      </c>
-      <c r="AG13">
-        <v>5</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>38</v>
       </c>
       <c r="AI13">
         <v>18</v>
@@ -1929,14 +1921,14 @@
       <c r="AJ13">
         <v>5</v>
       </c>
-      <c r="AK13">
-        <v>1</v>
-      </c>
-      <c r="AL13">
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>321</v>
       </c>
@@ -1959,10 +1951,10 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <v>7</v>
@@ -2037,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI14">
         <v>18</v>
@@ -2045,14 +2037,14 @@
       <c r="AJ14">
         <v>5</v>
       </c>
-      <c r="AK14">
-        <v>1</v>
-      </c>
-      <c r="AL14">
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
         <v>3.96</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>322</v>
       </c>
@@ -2075,10 +2067,10 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15">
         <v>7</v>
@@ -2153,7 +2145,7 @@
         <v>7</v>
       </c>
       <c r="AH15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI15">
         <v>18</v>
@@ -2161,14 +2153,14 @@
       <c r="AJ15">
         <v>5</v>
       </c>
-      <c r="AK15">
-        <v>1</v>
-      </c>
-      <c r="AL15">
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>323</v>
       </c>
@@ -2191,10 +2183,10 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16">
         <v>7</v>
@@ -2269,7 +2261,7 @@
         <v>7</v>
       </c>
       <c r="AH16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI16">
         <v>18</v>
@@ -2277,14 +2269,14 @@
       <c r="AJ16">
         <v>5</v>
       </c>
-      <c r="AK16">
-        <v>1</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>43</v>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>4.3949999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>324</v>
       </c>
@@ -2307,10 +2299,10 @@
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -2385,7 +2377,7 @@
         <v>7</v>
       </c>
       <c r="AH17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI17">
         <v>18</v>
@@ -2393,14 +2385,14 @@
       <c r="AJ17">
         <v>2</v>
       </c>
-      <c r="AK17">
-        <v>1</v>
-      </c>
-      <c r="AL17">
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>325</v>
       </c>
@@ -2423,10 +2415,10 @@
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18">
         <v>6</v>
@@ -2501,7 +2493,7 @@
         <v>5</v>
       </c>
       <c r="AH18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI18">
         <v>19</v>
@@ -2509,14 +2501,14 @@
       <c r="AJ18">
         <v>5</v>
       </c>
-      <c r="AK18">
-        <v>1</v>
-      </c>
-      <c r="AL18">
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
         <v>3.82</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>326</v>
       </c>
@@ -2539,10 +2531,10 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19">
         <v>7</v>
@@ -2617,7 +2609,7 @@
         <v>7</v>
       </c>
       <c r="AH19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI19">
         <v>18</v>
@@ -2625,14 +2617,14 @@
       <c r="AJ19">
         <v>5</v>
       </c>
-      <c r="AK19">
-        <v>1</v>
-      </c>
-      <c r="AL19">
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>327</v>
       </c>
@@ -2655,10 +2647,10 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2733,22 +2725,25 @@
         <v>6</v>
       </c>
       <c r="AH20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI20">
         <v>22</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AJ20">
+        <v>6</v>
+      </c>
+      <c r="AL20" t="s">
         <v>44</v>
       </c>
-      <c r="AK20">
-        <v>3</v>
-      </c>
-      <c r="AL20">
+      <c r="AM20">
+        <v>3</v>
+      </c>
+      <c r="AN20">
         <v>2.99</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>328</v>
       </c>
@@ -2771,10 +2766,10 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2846,7 +2841,7 @@
         <v>6</v>
       </c>
       <c r="AH21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI21">
         <v>18</v>
@@ -2854,14 +2849,14 @@
       <c r="AJ21">
         <v>5</v>
       </c>
-      <c r="AK21">
-        <v>1</v>
-      </c>
-      <c r="AL21">
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
         <v>3.3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>329</v>
       </c>
@@ -2884,10 +2879,10 @@
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J22">
         <v>7</v>
@@ -2962,7 +2957,7 @@
         <v>7</v>
       </c>
       <c r="AH22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI22">
         <v>19</v>
@@ -2970,14 +2965,14 @@
       <c r="AJ22">
         <v>1</v>
       </c>
-      <c r="AK22">
-        <v>2</v>
-      </c>
-      <c r="AL22">
+      <c r="AM22">
+        <v>2</v>
+      </c>
+      <c r="AN22">
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>330</v>
       </c>
@@ -3000,10 +2995,10 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J23">
         <v>7</v>
@@ -3078,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="AH23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI23">
         <v>24</v>
@@ -3086,14 +3081,14 @@
       <c r="AJ23">
         <v>5</v>
       </c>
-      <c r="AK23">
-        <v>4</v>
-      </c>
-      <c r="AL23">
+      <c r="AM23">
+        <v>4</v>
+      </c>
+      <c r="AN23">
         <v>2.7</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>331</v>
       </c>
@@ -3116,10 +3111,10 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24">
         <v>7</v>
@@ -3194,7 +3189,7 @@
         <v>6</v>
       </c>
       <c r="AH24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI24">
         <v>19</v>
@@ -3202,14 +3197,14 @@
       <c r="AJ24">
         <v>5</v>
       </c>
-      <c r="AK24">
-        <v>1</v>
-      </c>
-      <c r="AL24">
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>332</v>
       </c>
@@ -3232,85 +3227,85 @@
         <v>7</v>
       </c>
       <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s">
         <v>39</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="U25">
+        <v>6</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="X25">
+        <v>7</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+      <c r="Z25">
+        <v>5</v>
+      </c>
+      <c r="AA25">
+        <v>6</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>5</v>
+      </c>
+      <c r="AD25">
+        <v>4</v>
+      </c>
+      <c r="AE25">
+        <v>2</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>4</v>
+      </c>
+      <c r="AH25" t="s">
         <v>41</v>
-      </c>
-      <c r="J25">
-        <v>6</v>
-      </c>
-      <c r="K25">
-        <v>6</v>
-      </c>
-      <c r="L25">
-        <v>7</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-      <c r="N25">
-        <v>4</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>2</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-      <c r="R25">
-        <v>5</v>
-      </c>
-      <c r="S25">
-        <v>4</v>
-      </c>
-      <c r="T25">
-        <v>5</v>
-      </c>
-      <c r="U25">
-        <v>6</v>
-      </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
-      <c r="W25">
-        <v>3</v>
-      </c>
-      <c r="X25">
-        <v>7</v>
-      </c>
-      <c r="Y25">
-        <v>5</v>
-      </c>
-      <c r="Z25">
-        <v>5</v>
-      </c>
-      <c r="AA25">
-        <v>6</v>
-      </c>
-      <c r="AB25">
-        <v>3</v>
-      </c>
-      <c r="AC25">
-        <v>5</v>
-      </c>
-      <c r="AD25">
-        <v>4</v>
-      </c>
-      <c r="AE25">
-        <v>2</v>
-      </c>
-      <c r="AF25">
-        <v>1</v>
-      </c>
-      <c r="AG25">
-        <v>4</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>38</v>
       </c>
       <c r="AI25">
         <v>19</v>
@@ -3318,14 +3313,14 @@
       <c r="AJ25">
         <v>5</v>
       </c>
-      <c r="AK25">
-        <v>2</v>
-      </c>
-      <c r="AL25">
+      <c r="AM25">
+        <v>2</v>
+      </c>
+      <c r="AN25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>333</v>
       </c>
@@ -3348,85 +3343,85 @@
         <v>4</v>
       </c>
       <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>7</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>7</v>
+      </c>
+      <c r="AD26">
+        <v>7</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="s">
         <v>41</v>
-      </c>
-      <c r="I26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>5</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>4</v>
-      </c>
-      <c r="S26">
-        <v>5</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>7</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
-      <c r="AA26">
-        <v>1</v>
-      </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
-      <c r="AC26">
-        <v>7</v>
-      </c>
-      <c r="AD26">
-        <v>7</v>
-      </c>
-      <c r="AE26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AG26">
-        <v>1</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>38</v>
       </c>
       <c r="AI26">
         <v>18</v>
@@ -3434,14 +3429,14 @@
       <c r="AJ26">
         <v>5</v>
       </c>
-      <c r="AK26">
-        <v>1</v>
-      </c>
-      <c r="AL26">
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
         <v>3.8</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>334</v>
       </c>
@@ -3464,10 +3459,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -3542,7 +3537,7 @@
         <v>5</v>
       </c>
       <c r="AH27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI27">
         <v>18</v>
@@ -3550,14 +3545,14 @@
       <c r="AJ27">
         <v>5</v>
       </c>
-      <c r="AK27">
-        <v>1</v>
-      </c>
-      <c r="AL27">
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
         <v>2.9</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>335</v>
       </c>
@@ -3580,10 +3575,10 @@
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28">
         <v>7</v>
@@ -3658,7 +3653,7 @@
         <v>6</v>
       </c>
       <c r="AH28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI28">
         <v>18</v>
@@ -3666,14 +3661,14 @@
       <c r="AJ28">
         <v>5</v>
       </c>
-      <c r="AK28">
-        <v>1</v>
-      </c>
-      <c r="AL28">
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>336</v>
       </c>
@@ -3696,85 +3691,85 @@
         <v>4</v>
       </c>
       <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <v>5</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>5</v>
+      </c>
+      <c r="AB29">
+        <v>3</v>
+      </c>
+      <c r="AC29">
+        <v>5</v>
+      </c>
+      <c r="AD29">
+        <v>5</v>
+      </c>
+      <c r="AE29">
+        <v>5</v>
+      </c>
+      <c r="AF29">
+        <v>5</v>
+      </c>
+      <c r="AG29">
+        <v>6</v>
+      </c>
+      <c r="AH29" t="s">
         <v>41</v>
-      </c>
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29">
-        <v>7</v>
-      </c>
-      <c r="K29">
-        <v>4</v>
-      </c>
-      <c r="L29">
-        <v>6</v>
-      </c>
-      <c r="M29">
-        <v>5</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>3</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>3</v>
-      </c>
-      <c r="R29">
-        <v>5</v>
-      </c>
-      <c r="S29">
-        <v>5</v>
-      </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>5</v>
-      </c>
-      <c r="V29">
-        <v>3</v>
-      </c>
-      <c r="W29">
-        <v>3</v>
-      </c>
-      <c r="X29">
-        <v>5</v>
-      </c>
-      <c r="Y29">
-        <v>1</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AA29">
-        <v>5</v>
-      </c>
-      <c r="AB29">
-        <v>3</v>
-      </c>
-      <c r="AC29">
-        <v>5</v>
-      </c>
-      <c r="AD29">
-        <v>5</v>
-      </c>
-      <c r="AE29">
-        <v>5</v>
-      </c>
-      <c r="AF29">
-        <v>5</v>
-      </c>
-      <c r="AG29">
-        <v>6</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>38</v>
       </c>
       <c r="AI29">
         <v>20</v>
@@ -3782,14 +3777,14 @@
       <c r="AJ29">
         <v>5</v>
       </c>
-      <c r="AK29">
-        <v>3</v>
-      </c>
-      <c r="AL29">
+      <c r="AM29">
+        <v>3</v>
+      </c>
+      <c r="AN29">
         <v>3.06</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>337</v>
       </c>
@@ -3812,10 +3807,10 @@
         <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J30">
         <v>7</v>
@@ -3890,7 +3885,7 @@
         <v>6</v>
       </c>
       <c r="AH30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI30">
         <v>18</v>
@@ -3898,14 +3893,14 @@
       <c r="AJ30">
         <v>5</v>
       </c>
-      <c r="AK30">
-        <v>1</v>
-      </c>
-      <c r="AL30">
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>338</v>
       </c>
@@ -3928,10 +3923,10 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>6</v>
@@ -4006,7 +4001,7 @@
         <v>5</v>
       </c>
       <c r="AH31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI31">
         <v>18</v>
@@ -4014,14 +4009,14 @@
       <c r="AJ31">
         <v>5</v>
       </c>
-      <c r="AK31">
-        <v>1</v>
-      </c>
-      <c r="AL31">
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
         <v>3.8</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>339</v>
       </c>
@@ -4044,10 +4039,10 @@
         <v>7</v>
       </c>
       <c r="H32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32">
         <v>6</v>
@@ -4122,7 +4117,7 @@
         <v>5</v>
       </c>
       <c r="AH32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI32">
         <v>18</v>
@@ -4130,14 +4125,14 @@
       <c r="AJ32">
         <v>5</v>
       </c>
-      <c r="AK32">
-        <v>1</v>
-      </c>
-      <c r="AL32">
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>340</v>
       </c>
@@ -4160,10 +4155,10 @@
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33">
         <v>7</v>
@@ -4238,7 +4233,7 @@
         <v>6</v>
       </c>
       <c r="AH33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI33">
         <v>18</v>
@@ -4246,19 +4241,19 @@
       <c r="AJ33">
         <v>5</v>
       </c>
-      <c r="AK33">
-        <v>1</v>
-      </c>
-      <c r="AL33">
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>342</v>
       </c>
@@ -4281,10 +4276,10 @@
         <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J35">
         <v>7</v>
@@ -4359,7 +4354,7 @@
         <v>7</v>
       </c>
       <c r="AH35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AI35">
         <v>19</v>
@@ -4367,14 +4362,14 @@
       <c r="AJ35">
         <v>5</v>
       </c>
-      <c r="AK35">
-        <v>1</v>
-      </c>
-      <c r="AL35">
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>343</v>
       </c>
@@ -4397,10 +4392,10 @@
         <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J36">
         <v>7</v>
@@ -4475,7 +4470,7 @@
         <v>5</v>
       </c>
       <c r="AH36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI36">
         <v>18</v>
@@ -4483,14 +4478,14 @@
       <c r="AJ36">
         <v>5</v>
       </c>
-      <c r="AK36">
-        <v>1</v>
-      </c>
-      <c r="AL36">
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>344</v>
       </c>
@@ -4513,10 +4508,10 @@
         <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J37">
         <v>6</v>
@@ -4591,7 +4586,7 @@
         <v>7</v>
       </c>
       <c r="AH37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI37">
         <v>5</v>
@@ -4599,11 +4594,11 @@
       <c r="AJ37">
         <v>1</v>
       </c>
-      <c r="AK37">
+      <c r="AM37">
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>345</v>
       </c>
@@ -4626,10 +4621,10 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J38">
         <v>7</v>
@@ -4704,7 +4699,7 @@
         <v>7</v>
       </c>
       <c r="AH38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI38">
         <v>18</v>
@@ -4712,14 +4707,14 @@
       <c r="AJ38">
         <v>5</v>
       </c>
-      <c r="AK38">
-        <v>1</v>
-      </c>
-      <c r="AL38">
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
         <v>3.7</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>346</v>
       </c>
@@ -4742,10 +4737,10 @@
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>7</v>
@@ -4820,7 +4815,7 @@
         <v>6</v>
       </c>
       <c r="AH39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI39">
         <v>18</v>
@@ -4828,14 +4823,14 @@
       <c r="AJ39">
         <v>1</v>
       </c>
-      <c r="AK39">
-        <v>1</v>
-      </c>
-      <c r="AL39">
+      <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
         <v>3.79</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>347</v>
       </c>
@@ -4858,10 +4853,10 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J40">
         <v>7</v>
@@ -4936,7 +4931,7 @@
         <v>5</v>
       </c>
       <c r="AH40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI40">
         <v>18</v>
@@ -4944,14 +4939,14 @@
       <c r="AJ40">
         <v>2</v>
       </c>
-      <c r="AK40">
-        <v>1</v>
-      </c>
-      <c r="AL40">
+      <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
         <v>3.35</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>348</v>
       </c>
@@ -4974,10 +4969,10 @@
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J41">
         <v>3</v>
@@ -5052,7 +5047,7 @@
         <v>5</v>
       </c>
       <c r="AH41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI41">
         <v>18</v>
@@ -5060,14 +5055,14 @@
       <c r="AJ41">
         <v>5</v>
       </c>
-      <c r="AK41">
-        <v>1</v>
-      </c>
-      <c r="AL41">
+      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>349</v>
       </c>
@@ -5090,10 +5085,10 @@
         <v>6</v>
       </c>
       <c r="H42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J42">
         <v>6</v>
@@ -5168,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AH42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI42">
         <v>19</v>
@@ -5176,14 +5171,14 @@
       <c r="AJ42">
         <v>5</v>
       </c>
-      <c r="AK42">
-        <v>1</v>
-      </c>
-      <c r="AL42">
+      <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
         <v>3.8</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>350</v>
       </c>
@@ -5206,10 +5201,10 @@
         <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J43">
         <v>6</v>
@@ -5284,7 +5279,7 @@
         <v>6</v>
       </c>
       <c r="AH43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI43">
         <v>18</v>
@@ -5292,14 +5287,16 @@
       <c r="AJ43" s="1">
         <v>5</v>
       </c>
-      <c r="AK43">
-        <v>1</v>
-      </c>
-      <c r="AL43">
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>351</v>
       </c>
@@ -5322,10 +5319,10 @@
         <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <v>7</v>
@@ -5400,7 +5397,7 @@
         <v>7</v>
       </c>
       <c r="AH44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI44">
         <v>18</v>
@@ -5408,14 +5405,14 @@
       <c r="AJ44">
         <v>5</v>
       </c>
-      <c r="AK44">
-        <v>1</v>
-      </c>
-      <c r="AL44">
+      <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
         <v>3.2</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>352</v>
       </c>
@@ -5438,10 +5435,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J45">
         <v>7</v>
@@ -5516,7 +5513,7 @@
         <v>7</v>
       </c>
       <c r="AH45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI45">
         <v>19</v>
@@ -5524,14 +5521,14 @@
       <c r="AJ45">
         <v>5</v>
       </c>
-      <c r="AK45">
-        <v>1</v>
-      </c>
-      <c r="AL45">
+      <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
         <v>3.5</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>353</v>
       </c>
@@ -5554,10 +5551,10 @@
         <v>7</v>
       </c>
       <c r="H46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <v>7</v>
@@ -5632,7 +5629,7 @@
         <v>6</v>
       </c>
       <c r="AH46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI46">
         <v>18</v>
@@ -5640,14 +5637,14 @@
       <c r="AJ46">
         <v>5</v>
       </c>
-      <c r="AK46">
-        <v>1</v>
-      </c>
-      <c r="AL46">
+      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
         <v>3.7</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>354</v>
       </c>
@@ -5670,85 +5667,85 @@
         <v>7</v>
       </c>
       <c r="H47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <v>3</v>
+      </c>
+      <c r="T47">
+        <v>5</v>
+      </c>
+      <c r="U47">
+        <v>5</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>5</v>
+      </c>
+      <c r="X47">
+        <v>7</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>5</v>
+      </c>
+      <c r="AB47">
+        <v>5</v>
+      </c>
+      <c r="AC47">
+        <v>7</v>
+      </c>
+      <c r="AD47">
+        <v>5</v>
+      </c>
+      <c r="AE47">
+        <v>5</v>
+      </c>
+      <c r="AF47">
+        <v>4</v>
+      </c>
+      <c r="AG47">
+        <v>6</v>
+      </c>
+      <c r="AH47" t="s">
         <v>41</v>
-      </c>
-      <c r="I47" t="s">
-        <v>39</v>
-      </c>
-      <c r="J47">
-        <v>6</v>
-      </c>
-      <c r="K47">
-        <v>4</v>
-      </c>
-      <c r="L47">
-        <v>6</v>
-      </c>
-      <c r="M47">
-        <v>4</v>
-      </c>
-      <c r="N47">
-        <v>2</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>5</v>
-      </c>
-      <c r="R47">
-        <v>3</v>
-      </c>
-      <c r="S47">
-        <v>3</v>
-      </c>
-      <c r="T47">
-        <v>5</v>
-      </c>
-      <c r="U47">
-        <v>5</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>5</v>
-      </c>
-      <c r="X47">
-        <v>7</v>
-      </c>
-      <c r="Y47">
-        <v>1</v>
-      </c>
-      <c r="Z47">
-        <v>1</v>
-      </c>
-      <c r="AA47">
-        <v>5</v>
-      </c>
-      <c r="AB47">
-        <v>5</v>
-      </c>
-      <c r="AC47">
-        <v>7</v>
-      </c>
-      <c r="AD47">
-        <v>5</v>
-      </c>
-      <c r="AE47">
-        <v>5</v>
-      </c>
-      <c r="AF47">
-        <v>4</v>
-      </c>
-      <c r="AG47">
-        <v>6</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>38</v>
       </c>
       <c r="AI47">
         <v>19</v>
@@ -5756,14 +5753,14 @@
       <c r="AJ47">
         <v>5</v>
       </c>
-      <c r="AK47">
-        <v>1</v>
-      </c>
-      <c r="AL47">
+      <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
         <v>3.75</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>355</v>
       </c>
@@ -5786,10 +5783,10 @@
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J48">
         <v>7</v>
@@ -5864,7 +5861,7 @@
         <v>6</v>
       </c>
       <c r="AH48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI48">
         <v>19</v>
@@ -5872,14 +5869,14 @@
       <c r="AJ48">
         <v>5</v>
       </c>
-      <c r="AK48">
-        <v>1</v>
-      </c>
-      <c r="AL48">
+      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
         <v>3.9</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>356</v>
       </c>
@@ -5902,10 +5899,10 @@
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J49">
         <v>6</v>
@@ -5980,7 +5977,7 @@
         <v>5</v>
       </c>
       <c r="AH49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI49">
         <v>19</v>
@@ -5988,14 +5985,14 @@
       <c r="AJ49">
         <v>5</v>
       </c>
-      <c r="AK49">
-        <v>2</v>
-      </c>
-      <c r="AL49">
+      <c r="AM49">
+        <v>2</v>
+      </c>
+      <c r="AN49">
         <v>2.8</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>357</v>
       </c>
@@ -6018,10 +6015,10 @@
         <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J50">
         <v>7</v>
@@ -6096,22 +6093,25 @@
         <v>1</v>
       </c>
       <c r="AH50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI50">
         <v>18</v>
       </c>
-      <c r="AJ50" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK50">
-        <v>1</v>
-      </c>
-      <c r="AL50">
+      <c r="AJ50">
+        <v>6</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>358</v>
       </c>
@@ -6134,10 +6134,10 @@
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J51">
         <v>7</v>
@@ -6212,7 +6212,7 @@
         <v>5</v>
       </c>
       <c r="AH51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI51">
         <v>18</v>
@@ -6220,14 +6220,14 @@
       <c r="AJ51">
         <v>5</v>
       </c>
-      <c r="AK51">
-        <v>1</v>
-      </c>
-      <c r="AL51">
+      <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
         <v>2.8</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>359</v>
       </c>
@@ -6250,10 +6250,10 @@
         <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J52">
         <v>7</v>
@@ -6328,7 +6328,7 @@
         <v>7</v>
       </c>
       <c r="AH52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI52">
         <v>18</v>
@@ -6336,14 +6336,14 @@
       <c r="AJ52">
         <v>5</v>
       </c>
-      <c r="AK52">
-        <v>1</v>
-      </c>
-      <c r="AL52">
+      <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
         <v>3.8</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>360</v>
       </c>
@@ -6366,85 +6366,85 @@
         <v>4</v>
       </c>
       <c r="H53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" t="s">
         <v>39</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>6</v>
+      </c>
+      <c r="L53">
+        <v>6</v>
+      </c>
+      <c r="M53">
+        <v>6</v>
+      </c>
+      <c r="N53">
+        <v>5</v>
+      </c>
+      <c r="O53">
+        <v>5</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>6</v>
+      </c>
+      <c r="S53">
+        <v>6</v>
+      </c>
+      <c r="T53">
+        <v>4</v>
+      </c>
+      <c r="U53">
+        <v>3</v>
+      </c>
+      <c r="V53">
+        <v>5</v>
+      </c>
+      <c r="W53">
+        <v>3</v>
+      </c>
+      <c r="X53">
+        <v>6</v>
+      </c>
+      <c r="Y53">
+        <v>2</v>
+      </c>
+      <c r="Z53">
+        <v>5</v>
+      </c>
+      <c r="AA53">
+        <v>7</v>
+      </c>
+      <c r="AB53">
+        <v>2</v>
+      </c>
+      <c r="AC53">
+        <v>7</v>
+      </c>
+      <c r="AD53">
+        <v>7</v>
+      </c>
+      <c r="AE53">
+        <v>3</v>
+      </c>
+      <c r="AF53">
+        <v>6</v>
+      </c>
+      <c r="AG53">
+        <v>7</v>
+      </c>
+      <c r="AH53" t="s">
         <v>41</v>
-      </c>
-      <c r="J53">
-        <v>5</v>
-      </c>
-      <c r="K53">
-        <v>6</v>
-      </c>
-      <c r="L53">
-        <v>6</v>
-      </c>
-      <c r="M53">
-        <v>6</v>
-      </c>
-      <c r="N53">
-        <v>5</v>
-      </c>
-      <c r="O53">
-        <v>5</v>
-      </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>3</v>
-      </c>
-      <c r="R53">
-        <v>6</v>
-      </c>
-      <c r="S53">
-        <v>6</v>
-      </c>
-      <c r="T53">
-        <v>4</v>
-      </c>
-      <c r="U53">
-        <v>3</v>
-      </c>
-      <c r="V53">
-        <v>5</v>
-      </c>
-      <c r="W53">
-        <v>3</v>
-      </c>
-      <c r="X53">
-        <v>6</v>
-      </c>
-      <c r="Y53">
-        <v>2</v>
-      </c>
-      <c r="Z53">
-        <v>5</v>
-      </c>
-      <c r="AA53">
-        <v>7</v>
-      </c>
-      <c r="AB53">
-        <v>2</v>
-      </c>
-      <c r="AC53">
-        <v>7</v>
-      </c>
-      <c r="AD53">
-        <v>7</v>
-      </c>
-      <c r="AE53">
-        <v>3</v>
-      </c>
-      <c r="AF53">
-        <v>6</v>
-      </c>
-      <c r="AG53">
-        <v>7</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>38</v>
       </c>
       <c r="AI53">
         <v>19</v>
@@ -6452,14 +6452,14 @@
       <c r="AJ53">
         <v>5</v>
       </c>
-      <c r="AK53">
-        <v>1</v>
-      </c>
-      <c r="AL53">
+      <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
         <v>2.9</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>361</v>
       </c>
@@ -6482,10 +6482,10 @@
         <v>7</v>
       </c>
       <c r="H54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>7</v>
@@ -6560,7 +6560,7 @@
         <v>7</v>
       </c>
       <c r="AH54" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI54">
         <v>21</v>
@@ -6568,14 +6568,14 @@
       <c r="AJ54">
         <v>3</v>
       </c>
-      <c r="AK54">
-        <v>3</v>
-      </c>
-      <c r="AL54">
+      <c r="AM54">
+        <v>3</v>
+      </c>
+      <c r="AN54">
         <v>2.9</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>362</v>
       </c>
@@ -6598,10 +6598,10 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J55">
         <v>7</v>
@@ -6676,7 +6676,7 @@
         <v>7</v>
       </c>
       <c r="AH55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI55">
         <v>19</v>
@@ -6684,14 +6684,14 @@
       <c r="AJ55">
         <v>5</v>
       </c>
-      <c r="AK55">
-        <v>1</v>
-      </c>
-      <c r="AL55">
+      <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
         <v>3.2</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>382</v>
       </c>
@@ -6714,10 +6714,10 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -6792,7 +6792,7 @@
         <v>6</v>
       </c>
       <c r="AH56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI56">
         <v>18</v>
@@ -6800,14 +6800,14 @@
       <c r="AJ56">
         <v>2</v>
       </c>
-      <c r="AK56">
-        <v>1</v>
-      </c>
-      <c r="AL56">
+      <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
         <v>2.7</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>383</v>
       </c>
@@ -6830,85 +6830,85 @@
         <v>5</v>
       </c>
       <c r="H57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>6</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>7</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+      <c r="P57">
+        <v>7</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>6</v>
+      </c>
+      <c r="S57">
+        <v>5</v>
+      </c>
+      <c r="T57">
+        <v>4</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>2</v>
+      </c>
+      <c r="W57">
+        <v>2</v>
+      </c>
+      <c r="X57">
+        <v>7</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>5</v>
+      </c>
+      <c r="AA57">
+        <v>7</v>
+      </c>
+      <c r="AB57">
+        <v>6</v>
+      </c>
+      <c r="AC57">
+        <v>7</v>
+      </c>
+      <c r="AD57">
+        <v>7</v>
+      </c>
+      <c r="AE57">
+        <v>7</v>
+      </c>
+      <c r="AF57">
+        <v>7</v>
+      </c>
+      <c r="AG57">
+        <v>7</v>
+      </c>
+      <c r="AH57" t="s">
         <v>41</v>
-      </c>
-      <c r="I57" t="s">
-        <v>39</v>
-      </c>
-      <c r="J57">
-        <v>3</v>
-      </c>
-      <c r="K57">
-        <v>6</v>
-      </c>
-      <c r="L57">
-        <v>6</v>
-      </c>
-      <c r="M57">
-        <v>7</v>
-      </c>
-      <c r="N57">
-        <v>4</v>
-      </c>
-      <c r="O57">
-        <v>4</v>
-      </c>
-      <c r="P57">
-        <v>7</v>
-      </c>
-      <c r="Q57">
-        <v>2</v>
-      </c>
-      <c r="R57">
-        <v>6</v>
-      </c>
-      <c r="S57">
-        <v>5</v>
-      </c>
-      <c r="T57">
-        <v>4</v>
-      </c>
-      <c r="U57">
-        <v>2</v>
-      </c>
-      <c r="V57">
-        <v>2</v>
-      </c>
-      <c r="W57">
-        <v>2</v>
-      </c>
-      <c r="X57">
-        <v>7</v>
-      </c>
-      <c r="Y57">
-        <v>1</v>
-      </c>
-      <c r="Z57">
-        <v>5</v>
-      </c>
-      <c r="AA57">
-        <v>7</v>
-      </c>
-      <c r="AB57">
-        <v>6</v>
-      </c>
-      <c r="AC57">
-        <v>7</v>
-      </c>
-      <c r="AD57">
-        <v>7</v>
-      </c>
-      <c r="AE57">
-        <v>7</v>
-      </c>
-      <c r="AF57">
-        <v>7</v>
-      </c>
-      <c r="AG57">
-        <v>7</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>38</v>
       </c>
       <c r="AI57">
         <v>19</v>
@@ -6916,14 +6916,14 @@
       <c r="AJ57">
         <v>5</v>
       </c>
-      <c r="AK57">
-        <v>1</v>
-      </c>
-      <c r="AL57">
+      <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
         <v>2.25</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>384</v>
       </c>
@@ -6946,10 +6946,10 @@
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J58">
         <v>6</v>
@@ -7024,7 +7024,7 @@
         <v>4</v>
       </c>
       <c r="AH58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI58">
         <v>19</v>
@@ -7032,14 +7032,14 @@
       <c r="AJ58">
         <v>5</v>
       </c>
-      <c r="AK58">
-        <v>1</v>
-      </c>
-      <c r="AL58">
+      <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
         <v>3.99</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>385</v>
       </c>
@@ -7062,10 +7062,10 @@
         <v>6</v>
       </c>
       <c r="H59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J59">
         <v>7</v>
@@ -7140,22 +7140,25 @@
         <v>7</v>
       </c>
       <c r="AH59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI59">
         <v>19</v>
       </c>
-      <c r="AJ59" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK59">
-        <v>2</v>
-      </c>
-      <c r="AL59">
+      <c r="AJ59">
+        <v>6</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM59">
+        <v>2</v>
+      </c>
+      <c r="AN59">
         <v>3.8</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>386</v>
       </c>
@@ -7178,10 +7181,10 @@
         <v>7</v>
       </c>
       <c r="H60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J60">
         <v>7</v>
@@ -7256,7 +7259,7 @@
         <v>7</v>
       </c>
       <c r="AH60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI60">
         <v>19</v>
@@ -7264,14 +7267,14 @@
       <c r="AJ60">
         <v>5</v>
       </c>
-      <c r="AK60">
-        <v>1</v>
-      </c>
-      <c r="AL60">
+      <c r="AM60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
         <v>3.33</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>387</v>
       </c>
@@ -7294,10 +7297,10 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J61">
         <v>7</v>
@@ -7372,7 +7375,7 @@
         <v>6</v>
       </c>
       <c r="AH61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI61">
         <v>19</v>
@@ -7380,14 +7383,14 @@
       <c r="AJ61">
         <v>5</v>
       </c>
-      <c r="AK61">
-        <v>1</v>
-      </c>
-      <c r="AL61">
+      <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>388</v>
       </c>
@@ -7410,10 +7413,10 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J62">
         <v>5</v>
@@ -7488,7 +7491,7 @@
         <v>3</v>
       </c>
       <c r="AH62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI62">
         <v>19</v>
@@ -7496,14 +7499,14 @@
       <c r="AJ62">
         <v>5</v>
       </c>
-      <c r="AK62">
-        <v>1</v>
-      </c>
-      <c r="AL62">
+      <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
         <v>3.3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>389</v>
       </c>
@@ -7526,10 +7529,10 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <v>7</v>
@@ -7604,7 +7607,7 @@
         <v>6</v>
       </c>
       <c r="AH63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI63">
         <v>18</v>
@@ -7612,14 +7615,14 @@
       <c r="AJ63">
         <v>5</v>
       </c>
-      <c r="AK63">
-        <v>1</v>
-      </c>
-      <c r="AL63">
+      <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
         <v>3.23</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>390</v>
       </c>
@@ -7642,10 +7645,10 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J64">
         <v>6</v>
@@ -7720,7 +7723,7 @@
         <v>7</v>
       </c>
       <c r="AH64" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI64">
         <v>19</v>
@@ -7728,14 +7731,14 @@
       <c r="AJ64">
         <v>5</v>
       </c>
-      <c r="AK64">
-        <v>1</v>
-      </c>
-      <c r="AL64">
+      <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
         <v>3.4</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>391</v>
       </c>
@@ -7758,10 +7761,10 @@
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J65">
         <v>6</v>
@@ -7836,7 +7839,7 @@
         <v>3</v>
       </c>
       <c r="AH65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI65">
         <v>18</v>
@@ -7844,14 +7847,14 @@
       <c r="AJ65">
         <v>5</v>
       </c>
-      <c r="AK65">
-        <v>1</v>
-      </c>
-      <c r="AL65">
+      <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
         <v>2.9</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>392</v>
       </c>
@@ -7873,12 +7876,6 @@
       <c r="G66">
         <v>4</v>
       </c>
-      <c r="H66" t="s">
-        <v>51</v>
-      </c>
-      <c r="I66" t="s">
-        <v>51</v>
-      </c>
       <c r="J66">
         <v>7</v>
       </c>
@@ -7952,7 +7949,7 @@
         <v>3</v>
       </c>
       <c r="AH66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI66">
         <v>18</v>
@@ -7960,14 +7957,14 @@
       <c r="AJ66">
         <v>5</v>
       </c>
-      <c r="AK66">
-        <v>1</v>
-      </c>
-      <c r="AL66">
+      <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
         <v>3.5</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>393</v>
       </c>
@@ -7990,10 +7987,10 @@
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J67">
         <v>7</v>
@@ -8068,7 +8065,7 @@
         <v>7</v>
       </c>
       <c r="AH67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI67">
         <v>20</v>
@@ -8076,14 +8073,14 @@
       <c r="AJ67">
         <v>5</v>
       </c>
-      <c r="AK67">
-        <v>3</v>
-      </c>
-      <c r="AL67">
+      <c r="AM67">
+        <v>3</v>
+      </c>
+      <c r="AN67">
         <v>3.1</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>394</v>
       </c>
@@ -8106,10 +8103,10 @@
         <v>7</v>
       </c>
       <c r="H68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J68">
         <v>7</v>
@@ -8184,7 +8181,7 @@
         <v>7</v>
       </c>
       <c r="AH68" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI68">
         <v>19</v>
@@ -8192,14 +8189,14 @@
       <c r="AJ68">
         <v>3</v>
       </c>
-      <c r="AK68">
-        <v>1</v>
-      </c>
-      <c r="AL68">
+      <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
         <v>2.8</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>395</v>
       </c>
@@ -8222,10 +8219,10 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J69">
         <v>7</v>
@@ -8300,7 +8297,7 @@
         <v>7</v>
       </c>
       <c r="AH69" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI69">
         <v>18</v>
@@ -8308,14 +8305,14 @@
       <c r="AJ69">
         <v>5</v>
       </c>
-      <c r="AK69">
-        <v>1</v>
-      </c>
-      <c r="AL69">
+      <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
         <v>3.7</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>396</v>
       </c>
@@ -8338,10 +8335,10 @@
         <v>2</v>
       </c>
       <c r="H70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J70">
         <v>5</v>
@@ -8416,7 +8413,7 @@
         <v>5</v>
       </c>
       <c r="AH70" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI70">
         <v>19</v>
@@ -8424,14 +8421,14 @@
       <c r="AJ70">
         <v>5</v>
       </c>
-      <c r="AK70">
-        <v>1</v>
-      </c>
-      <c r="AL70">
+      <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
         <v>3.25</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>397</v>
       </c>
@@ -8454,10 +8451,10 @@
         <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J71">
         <v>7</v>
@@ -8532,7 +8529,7 @@
         <v>7</v>
       </c>
       <c r="AH71" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI71">
         <v>20</v>
@@ -8540,14 +8537,14 @@
       <c r="AJ71">
         <v>5</v>
       </c>
-      <c r="AK71">
-        <v>2</v>
-      </c>
-      <c r="AL71">
+      <c r="AM71">
+        <v>2</v>
+      </c>
+      <c r="AN71">
         <v>3.55</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>398</v>
       </c>
@@ -8570,10 +8567,10 @@
         <v>7</v>
       </c>
       <c r="H72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J72">
         <v>7</v>
@@ -8648,7 +8645,7 @@
         <v>7</v>
       </c>
       <c r="AH72" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI72">
         <v>19</v>
@@ -8656,14 +8653,14 @@
       <c r="AJ72">
         <v>1</v>
       </c>
-      <c r="AK72">
-        <v>1</v>
-      </c>
-      <c r="AL72">
+      <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
         <v>3.2</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>399</v>
       </c>
@@ -8686,10 +8683,10 @@
         <v>6</v>
       </c>
       <c r="H73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J73">
         <v>7</v>
@@ -8764,7 +8761,7 @@
         <v>6</v>
       </c>
       <c r="AH73" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI73">
         <v>19</v>
@@ -8772,14 +8769,14 @@
       <c r="AJ73">
         <v>5</v>
       </c>
-      <c r="AK73">
-        <v>1</v>
-      </c>
-      <c r="AL73">
+      <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
         <v>3.5</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>400</v>
       </c>
@@ -8802,10 +8799,10 @@
         <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J74">
         <v>7</v>
@@ -8880,7 +8877,7 @@
         <v>5</v>
       </c>
       <c r="AH74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI74">
         <v>19</v>
@@ -8888,14 +8885,14 @@
       <c r="AJ74">
         <v>5</v>
       </c>
-      <c r="AK74">
-        <v>1</v>
-      </c>
-      <c r="AL74">
+      <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
         <v>3.2</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>401</v>
       </c>
@@ -8918,10 +8915,10 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J75">
         <v>6</v>
@@ -8996,7 +8993,7 @@
         <v>7</v>
       </c>
       <c r="AH75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI75">
         <v>18</v>
@@ -9004,14 +9001,14 @@
       <c r="AJ75">
         <v>5</v>
       </c>
-      <c r="AK75">
-        <v>1</v>
-      </c>
-      <c r="AL75">
+      <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>402</v>
       </c>
@@ -9034,10 +9031,10 @@
         <v>7</v>
       </c>
       <c r="H76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J76">
         <v>5</v>
@@ -9112,7 +9109,7 @@
         <v>2</v>
       </c>
       <c r="AH76" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI76">
         <v>18</v>
@@ -9120,14 +9117,14 @@
       <c r="AJ76">
         <v>5</v>
       </c>
-      <c r="AK76">
-        <v>1</v>
-      </c>
-      <c r="AL76">
+      <c r="AM76">
+        <v>1</v>
+      </c>
+      <c r="AN76">
         <v>3.8</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>403</v>
       </c>
@@ -9150,10 +9147,10 @@
         <v>7</v>
       </c>
       <c r="H77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <v>7</v>
@@ -9228,22 +9225,25 @@
         <v>6</v>
       </c>
       <c r="AH77" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI77">
         <v>20</v>
       </c>
-      <c r="AJ77" t="s">
+      <c r="AJ77">
+        <v>6</v>
+      </c>
+      <c r="AL77" t="s">
         <v>44</v>
       </c>
-      <c r="AK77">
-        <v>1</v>
-      </c>
-      <c r="AL77">
+      <c r="AM77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
         <v>3.2</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>404</v>
       </c>
@@ -9266,10 +9266,10 @@
         <v>7</v>
       </c>
       <c r="H78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J78">
         <v>5</v>
@@ -9344,7 +9344,7 @@
         <v>7</v>
       </c>
       <c r="AH78" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI78">
         <v>21</v>
@@ -9352,14 +9352,14 @@
       <c r="AJ78">
         <v>5</v>
       </c>
-      <c r="AK78">
-        <v>4</v>
-      </c>
-      <c r="AL78">
+      <c r="AM78">
+        <v>4</v>
+      </c>
+      <c r="AN78">
         <v>3.75</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>405</v>
       </c>
@@ -9382,10 +9382,10 @@
         <v>7</v>
       </c>
       <c r="H79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J79">
         <v>7</v>
@@ -9460,7 +9460,7 @@
         <v>5</v>
       </c>
       <c r="AH79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI79">
         <v>18</v>
@@ -9468,14 +9468,14 @@
       <c r="AJ79">
         <v>1</v>
       </c>
-      <c r="AK79">
-        <v>1</v>
-      </c>
-      <c r="AL79">
+      <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AN79">
         <v>2.8</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>406</v>
       </c>
@@ -9498,10 +9498,10 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -9576,7 +9576,7 @@
         <v>7</v>
       </c>
       <c r="AH80" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI80">
         <v>19</v>
@@ -9584,14 +9584,14 @@
       <c r="AJ80">
         <v>1</v>
       </c>
-      <c r="AK80">
-        <v>1</v>
-      </c>
-      <c r="AL80">
+      <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>407</v>
       </c>
@@ -9614,10 +9614,10 @@
         <v>7</v>
       </c>
       <c r="H81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J81">
         <v>7</v>
@@ -9692,7 +9692,7 @@
         <v>2</v>
       </c>
       <c r="AH81" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI81">
         <v>18</v>
@@ -9700,14 +9700,14 @@
       <c r="AJ81">
         <v>1</v>
       </c>
-      <c r="AK81" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL81">
+      <c r="AM81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN81">
         <v>3.7</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>408</v>
       </c>
@@ -9730,10 +9730,10 @@
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J82">
         <v>7</v>
@@ -9808,7 +9808,7 @@
         <v>7</v>
       </c>
       <c r="AH82" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI82">
         <v>19</v>
@@ -9816,14 +9816,14 @@
       <c r="AJ82">
         <v>5</v>
       </c>
-      <c r="AK82">
-        <v>1</v>
-      </c>
-      <c r="AL82">
+      <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>409</v>
       </c>
@@ -9846,10 +9846,10 @@
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J83">
         <v>6</v>
@@ -9924,7 +9924,7 @@
         <v>7</v>
       </c>
       <c r="AH83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI83">
         <v>19</v>
@@ -9932,14 +9932,14 @@
       <c r="AJ83">
         <v>1</v>
       </c>
-      <c r="AK83">
-        <v>1</v>
-      </c>
-      <c r="AL83">
+      <c r="AM83">
+        <v>1</v>
+      </c>
+      <c r="AN83">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>410</v>
       </c>
@@ -9962,10 +9962,10 @@
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J84">
         <v>6</v>
@@ -10040,7 +10040,7 @@
         <v>7</v>
       </c>
       <c r="AH84" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI84">
         <v>18</v>
@@ -10048,14 +10048,14 @@
       <c r="AJ84">
         <v>5</v>
       </c>
-      <c r="AK84">
-        <v>1</v>
-      </c>
-      <c r="AL84">
+      <c r="AM84">
+        <v>1</v>
+      </c>
+      <c r="AN84">
         <v>3.5</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>411</v>
       </c>
@@ -10078,10 +10078,10 @@
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J85">
         <v>7</v>
@@ -10156,22 +10156,25 @@
         <v>4</v>
       </c>
       <c r="AH85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI85">
         <v>20</v>
       </c>
-      <c r="AJ85" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK85">
-        <v>1</v>
-      </c>
-      <c r="AL85">
+      <c r="AJ85">
+        <v>6</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
         <v>3.4</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>412</v>
       </c>
@@ -10194,10 +10197,10 @@
         <v>5</v>
       </c>
       <c r="H86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J86">
         <v>6</v>
@@ -10272,7 +10275,7 @@
         <v>6</v>
       </c>
       <c r="AH86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI86">
         <v>19</v>
@@ -10280,14 +10283,14 @@
       <c r="AJ86">
         <v>5</v>
       </c>
-      <c r="AK86">
-        <v>1</v>
-      </c>
-      <c r="AL86">
+      <c r="AM86">
+        <v>1</v>
+      </c>
+      <c r="AN86">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>413</v>
       </c>
@@ -10310,10 +10313,10 @@
         <v>5</v>
       </c>
       <c r="H87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J87">
         <v>7</v>
@@ -10388,7 +10391,7 @@
         <v>6</v>
       </c>
       <c r="AH87" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI87">
         <v>19</v>
@@ -10396,14 +10399,14 @@
       <c r="AJ87">
         <v>5</v>
       </c>
-      <c r="AK87">
-        <v>2</v>
-      </c>
-      <c r="AL87">
+      <c r="AM87">
+        <v>2</v>
+      </c>
+      <c r="AN87">
         <v>2.8</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>414</v>
       </c>
@@ -10426,10 +10429,10 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -10504,7 +10507,7 @@
         <v>5</v>
       </c>
       <c r="AH88" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI88">
         <v>19</v>
@@ -10512,14 +10515,14 @@
       <c r="AJ88">
         <v>5</v>
       </c>
-      <c r="AK88">
-        <v>1</v>
-      </c>
-      <c r="AL88">
+      <c r="AM88">
+        <v>1</v>
+      </c>
+      <c r="AN88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>415</v>
       </c>
@@ -10542,10 +10545,10 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J89">
         <v>7</v>
@@ -10620,7 +10623,7 @@
         <v>7</v>
       </c>
       <c r="AH89" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI89">
         <v>18</v>
@@ -10628,14 +10631,14 @@
       <c r="AJ89">
         <v>5</v>
       </c>
-      <c r="AK89">
-        <v>1</v>
-      </c>
-      <c r="AL89">
+      <c r="AM89">
+        <v>1</v>
+      </c>
+      <c r="AN89">
         <v>2.7</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>416</v>
       </c>
@@ -10658,10 +10661,10 @@
         <v>7</v>
       </c>
       <c r="H90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>7</v>
@@ -10736,7 +10739,7 @@
         <v>5</v>
       </c>
       <c r="AH90" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI90">
         <v>18</v>
@@ -10744,14 +10747,14 @@
       <c r="AJ90">
         <v>5</v>
       </c>
-      <c r="AK90">
-        <v>1</v>
-      </c>
-      <c r="AL90">
+      <c r="AM90">
+        <v>1</v>
+      </c>
+      <c r="AN90">
         <v>3.95</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>417</v>
       </c>
@@ -10774,10 +10777,10 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>7</v>
@@ -10852,7 +10855,7 @@
         <v>7</v>
       </c>
       <c r="AH91" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI91">
         <v>19</v>
@@ -10860,14 +10863,14 @@
       <c r="AJ91">
         <v>5</v>
       </c>
-      <c r="AK91">
-        <v>1</v>
-      </c>
-      <c r="AL91">
+      <c r="AM91">
+        <v>1</v>
+      </c>
+      <c r="AN91">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>418</v>
       </c>
@@ -10890,10 +10893,10 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J92">
         <v>7</v>
@@ -10968,7 +10971,7 @@
         <v>7</v>
       </c>
       <c r="AH92" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI92">
         <v>19</v>
@@ -10976,14 +10979,14 @@
       <c r="AJ92">
         <v>1</v>
       </c>
-      <c r="AK92">
-        <v>1</v>
-      </c>
-      <c r="AL92">
+      <c r="AM92">
+        <v>1</v>
+      </c>
+      <c r="AN92">
         <v>3.6</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>419</v>
       </c>
@@ -11006,10 +11009,10 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J93">
         <v>7</v>
@@ -11084,7 +11087,7 @@
         <v>7</v>
       </c>
       <c r="AH93" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI93">
         <v>23</v>
@@ -11092,14 +11095,14 @@
       <c r="AJ93">
         <v>5</v>
       </c>
-      <c r="AK93">
-        <v>3</v>
-      </c>
-      <c r="AL93">
+      <c r="AM93">
+        <v>3</v>
+      </c>
+      <c r="AN93">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>420</v>
       </c>
@@ -11122,10 +11125,10 @@
         <v>5</v>
       </c>
       <c r="H94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J94">
         <v>6</v>
@@ -11181,41 +11184,11 @@
       <c r="AA94">
         <v>6</v>
       </c>
-      <c r="AB94" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC94" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD94" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF94" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG94" t="s">
-        <v>51</v>
-      </c>
       <c r="AH94" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI94" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ94" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK94" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL94" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>421</v>
       </c>
@@ -11238,10 +11211,10 @@
         <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J95">
         <v>7</v>
@@ -11316,7 +11289,7 @@
         <v>7</v>
       </c>
       <c r="AH95" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI95">
         <v>18</v>
@@ -11324,14 +11297,14 @@
       <c r="AJ95">
         <v>5</v>
       </c>
-      <c r="AK95">
-        <v>1</v>
-      </c>
-      <c r="AL95">
+      <c r="AM95">
+        <v>1</v>
+      </c>
+      <c r="AN95">
         <v>3.6</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>422</v>
       </c>
@@ -11354,10 +11327,10 @@
         <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J96">
         <v>7</v>
@@ -11432,7 +11405,7 @@
         <v>5</v>
       </c>
       <c r="AH96" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI96">
         <v>19</v>
@@ -11440,14 +11413,14 @@
       <c r="AJ96">
         <v>5</v>
       </c>
-      <c r="AK96">
-        <v>1</v>
-      </c>
-      <c r="AL96">
+      <c r="AM96">
+        <v>1</v>
+      </c>
+      <c r="AN96">
         <v>3.6</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>423</v>
       </c>
@@ -11470,10 +11443,10 @@
         <v>7</v>
       </c>
       <c r="H97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J97">
         <v>7</v>
@@ -11548,7 +11521,7 @@
         <v>6</v>
       </c>
       <c r="AH97" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI97">
         <v>19</v>
@@ -11556,14 +11529,14 @@
       <c r="AJ97">
         <v>5</v>
       </c>
-      <c r="AK97">
-        <v>2</v>
-      </c>
-      <c r="AL97">
+      <c r="AM97">
+        <v>2</v>
+      </c>
+      <c r="AN97">
         <v>2.9</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>424</v>
       </c>
@@ -11586,10 +11559,10 @@
         <v>3</v>
       </c>
       <c r="H98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J98">
         <v>6</v>
@@ -11664,7 +11637,7 @@
         <v>7</v>
       </c>
       <c r="AH98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI98">
         <v>19</v>
@@ -11672,14 +11645,14 @@
       <c r="AJ98">
         <v>5</v>
       </c>
-      <c r="AK98">
-        <v>1</v>
-      </c>
-      <c r="AL98">
+      <c r="AM98">
+        <v>1</v>
+      </c>
+      <c r="AN98">
         <v>3.3</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>425</v>
       </c>
@@ -11702,10 +11675,10 @@
         <v>2</v>
       </c>
       <c r="H99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J99">
         <v>6</v>
@@ -11780,7 +11753,7 @@
         <v>6</v>
       </c>
       <c r="AH99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI99">
         <v>19</v>
@@ -11788,14 +11761,14 @@
       <c r="AJ99">
         <v>5</v>
       </c>
-      <c r="AK99">
-        <v>2</v>
-      </c>
-      <c r="AL99">
+      <c r="AM99">
+        <v>2</v>
+      </c>
+      <c r="AN99">
         <v>2.85</v>
       </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>426</v>
       </c>
@@ -11818,10 +11791,10 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J100">
         <v>6</v>
@@ -11896,7 +11869,7 @@
         <v>7</v>
       </c>
       <c r="AH100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI100">
         <v>19</v>
@@ -11904,14 +11877,14 @@
       <c r="AJ100">
         <v>5</v>
       </c>
-      <c r="AK100">
-        <v>1</v>
-      </c>
-      <c r="AL100">
+      <c r="AM100">
+        <v>1</v>
+      </c>
+      <c r="AN100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>427</v>
       </c>
@@ -11934,10 +11907,10 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J101">
         <v>7</v>
@@ -12012,7 +11985,7 @@
         <v>7</v>
       </c>
       <c r="AH101" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI101">
         <v>21</v>
@@ -12020,14 +11993,14 @@
       <c r="AJ101">
         <v>5</v>
       </c>
-      <c r="AK101">
-        <v>4</v>
-      </c>
-      <c r="AL101">
+      <c r="AM101">
+        <v>4</v>
+      </c>
+      <c r="AN101">
         <v>3.4</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>428</v>
       </c>
@@ -12050,10 +12023,10 @@
         <v>4</v>
       </c>
       <c r="H102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J102">
         <v>3</v>
@@ -12128,7 +12101,7 @@
         <v>1</v>
       </c>
       <c r="AH102" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI102">
         <v>21</v>
@@ -12136,14 +12109,14 @@
       <c r="AJ102">
         <v>5</v>
       </c>
-      <c r="AK102">
-        <v>3</v>
-      </c>
-      <c r="AL102">
+      <c r="AM102">
+        <v>3</v>
+      </c>
+      <c r="AN102">
         <v>3.61</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>429</v>
       </c>
@@ -12166,10 +12139,10 @@
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J103">
         <v>5</v>
@@ -12244,7 +12217,7 @@
         <v>3</v>
       </c>
       <c r="AH103" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI103">
         <v>19</v>
@@ -12252,14 +12225,14 @@
       <c r="AJ103">
         <v>5</v>
       </c>
-      <c r="AK103">
-        <v>1</v>
-      </c>
-      <c r="AL103">
+      <c r="AM103">
+        <v>1</v>
+      </c>
+      <c r="AN103">
         <v>3.25</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>430</v>
       </c>
@@ -12282,10 +12255,10 @@
         <v>2</v>
       </c>
       <c r="H104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J104">
         <v>7</v>
@@ -12305,8 +12278,8 @@
       <c r="O104">
         <v>7</v>
       </c>
-      <c r="P104" s="2" t="s">
-        <v>52</v>
+      <c r="P104" s="2">
+        <v>2</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -12360,7 +12333,7 @@
         <v>7</v>
       </c>
       <c r="AH104" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI104">
         <v>19</v>
@@ -12368,14 +12341,14 @@
       <c r="AJ104">
         <v>5</v>
       </c>
-      <c r="AK104">
-        <v>1</v>
-      </c>
-      <c r="AL104">
+      <c r="AM104">
+        <v>1</v>
+      </c>
+      <c r="AN104">
         <v>3.7120000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>431</v>
       </c>
@@ -12398,10 +12371,10 @@
         <v>5</v>
       </c>
       <c r="H105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J105">
         <v>7</v>
@@ -12476,7 +12449,7 @@
         <v>6</v>
       </c>
       <c r="AH105" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI105">
         <v>18</v>
@@ -12484,14 +12457,14 @@
       <c r="AJ105">
         <v>5</v>
       </c>
-      <c r="AK105">
-        <v>1</v>
-      </c>
-      <c r="AL105">
+      <c r="AM105">
+        <v>1</v>
+      </c>
+      <c r="AN105">
         <v>3.8</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>432</v>
       </c>
@@ -12514,10 +12487,10 @@
         <v>7</v>
       </c>
       <c r="H106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J106">
         <v>7</v>
@@ -12592,7 +12565,7 @@
         <v>7</v>
       </c>
       <c r="AH106" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI106">
         <v>20</v>
@@ -12600,14 +12573,14 @@
       <c r="AJ106">
         <v>5</v>
       </c>
-      <c r="AK106">
-        <v>2</v>
-      </c>
-      <c r="AL106">
+      <c r="AM106">
+        <v>2</v>
+      </c>
+      <c r="AN106">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>433</v>
       </c>
@@ -12630,10 +12603,10 @@
         <v>7</v>
       </c>
       <c r="H107" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I107" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J107">
         <v>7</v>
@@ -12708,7 +12681,7 @@
         <v>7</v>
       </c>
       <c r="AH107" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI107">
         <v>19</v>
@@ -12716,14 +12689,14 @@
       <c r="AJ107">
         <v>5</v>
       </c>
-      <c r="AK107">
-        <v>1</v>
-      </c>
-      <c r="AL107">
+      <c r="AM107">
+        <v>1</v>
+      </c>
+      <c r="AN107">
         <v>2.9</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>434</v>
       </c>
@@ -12746,10 +12719,10 @@
         <v>4</v>
       </c>
       <c r="H108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J108">
         <v>7</v>
@@ -12824,7 +12797,7 @@
         <v>7</v>
       </c>
       <c r="AH108" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI108">
         <v>21</v>
@@ -12832,14 +12805,14 @@
       <c r="AJ108">
         <v>5</v>
       </c>
-      <c r="AK108">
-        <v>3</v>
-      </c>
-      <c r="AL108">
+      <c r="AM108">
+        <v>3</v>
+      </c>
+      <c r="AN108">
         <v>2.7</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>435</v>
       </c>
@@ -12862,10 +12835,10 @@
         <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J109">
         <v>7</v>
@@ -12940,7 +12913,7 @@
         <v>7</v>
       </c>
       <c r="AH109" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI109">
         <v>20</v>
@@ -12948,14 +12921,14 @@
       <c r="AJ109">
         <v>5</v>
       </c>
-      <c r="AK109">
-        <v>2</v>
-      </c>
-      <c r="AL109">
+      <c r="AM109">
+        <v>2</v>
+      </c>
+      <c r="AN109">
         <v>3.44</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>436</v>
       </c>
@@ -12978,10 +12951,10 @@
         <v>4</v>
       </c>
       <c r="H110" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I110" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -13056,7 +13029,7 @@
         <v>5</v>
       </c>
       <c r="AH110" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AI110">
         <v>19</v>
@@ -13064,14 +13037,14 @@
       <c r="AJ110">
         <v>5</v>
       </c>
-      <c r="AK110">
-        <v>1</v>
-      </c>
-      <c r="AL110">
+      <c r="AM110">
+        <v>1</v>
+      </c>
+      <c r="AN110">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>437</v>
       </c>
@@ -13094,10 +13067,10 @@
         <v>5</v>
       </c>
       <c r="H111" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I111" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J111">
         <v>7</v>
@@ -13172,7 +13145,7 @@
         <v>7</v>
       </c>
       <c r="AH111" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI111">
         <v>18</v>
@@ -13180,14 +13153,14 @@
       <c r="AJ111">
         <v>5</v>
       </c>
-      <c r="AK111">
-        <v>1</v>
-      </c>
-      <c r="AL111">
+      <c r="AM111">
+        <v>1</v>
+      </c>
+      <c r="AN111">
         <v>3.8</v>
       </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>438</v>
       </c>
@@ -13210,10 +13183,10 @@
         <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J112">
         <v>5</v>
@@ -13288,7 +13261,7 @@
         <v>2</v>
       </c>
       <c r="AH112" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI112">
         <v>19</v>
@@ -13296,14 +13269,14 @@
       <c r="AJ112">
         <v>5</v>
       </c>
-      <c r="AK112">
-        <v>1</v>
-      </c>
-      <c r="AL112">
+      <c r="AM112">
+        <v>1</v>
+      </c>
+      <c r="AN112">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>439</v>
       </c>
@@ -13326,10 +13299,10 @@
         <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J113">
         <v>7</v>
@@ -13404,7 +13377,7 @@
         <v>5</v>
       </c>
       <c r="AH113" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI113">
         <v>18</v>
@@ -13412,14 +13385,14 @@
       <c r="AJ113">
         <v>5</v>
       </c>
-      <c r="AK113">
-        <v>1</v>
-      </c>
-      <c r="AL113">
+      <c r="AM113">
+        <v>1</v>
+      </c>
+      <c r="AN113">
         <v>3.5</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>440</v>
       </c>
@@ -13442,10 +13415,10 @@
         <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J114">
         <v>6</v>
@@ -13520,7 +13493,7 @@
         <v>4</v>
       </c>
       <c r="AH114" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI114">
         <v>21</v>
@@ -13528,14 +13501,14 @@
       <c r="AJ114">
         <v>5</v>
       </c>
-      <c r="AK114">
-        <v>3</v>
-      </c>
-      <c r="AL114">
+      <c r="AM114">
+        <v>3</v>
+      </c>
+      <c r="AN114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>441</v>
       </c>
@@ -13557,12 +13530,6 @@
       <c r="G115">
         <v>6</v>
       </c>
-      <c r="H115" t="s">
-        <v>53</v>
-      </c>
-      <c r="I115" t="s">
-        <v>53</v>
-      </c>
       <c r="J115">
         <v>7</v>
       </c>
@@ -13636,22 +13603,25 @@
         <v>6</v>
       </c>
       <c r="AH115" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI115">
         <v>19</v>
       </c>
-      <c r="AJ115" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK115">
-        <v>2</v>
-      </c>
-      <c r="AL115">
+      <c r="AJ115">
+        <v>6</v>
+      </c>
+      <c r="AL115" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM115">
+        <v>2</v>
+      </c>
+      <c r="AN115">
         <v>3.52</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>442</v>
       </c>
@@ -13673,12 +13643,6 @@
       <c r="G116">
         <v>5</v>
       </c>
-      <c r="H116" t="s">
-        <v>53</v>
-      </c>
-      <c r="I116" t="s">
-        <v>53</v>
-      </c>
       <c r="J116">
         <v>7</v>
       </c>
@@ -13718,8 +13682,8 @@
       <c r="V116">
         <v>1</v>
       </c>
-      <c r="W116" t="s">
-        <v>55</v>
+      <c r="W116">
+        <v>5</v>
       </c>
       <c r="X116">
         <v>7</v>
@@ -13752,7 +13716,7 @@
         <v>7</v>
       </c>
       <c r="AH116" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AI116">
         <v>21</v>
@@ -13760,14 +13724,14 @@
       <c r="AJ116">
         <v>5</v>
       </c>
-      <c r="AK116">
-        <v>3</v>
-      </c>
-      <c r="AL116">
+      <c r="AM116">
+        <v>3</v>
+      </c>
+      <c r="AN116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>443</v>
       </c>
@@ -13789,12 +13753,6 @@
       <c r="G117">
         <v>6</v>
       </c>
-      <c r="H117" t="s">
-        <v>53</v>
-      </c>
-      <c r="I117" t="s">
-        <v>53</v>
-      </c>
       <c r="J117">
         <v>6</v>
       </c>
@@ -13868,7 +13826,7 @@
         <v>7</v>
       </c>
       <c r="AH117" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI117">
         <v>19</v>
@@ -13876,14 +13834,14 @@
       <c r="AJ117">
         <v>2</v>
       </c>
-      <c r="AK117">
-        <v>1</v>
-      </c>
-      <c r="AL117">
+      <c r="AM117">
+        <v>1</v>
+      </c>
+      <c r="AN117">
         <v>3.1</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>444</v>
       </c>
@@ -13905,12 +13863,6 @@
       <c r="G118">
         <v>5</v>
       </c>
-      <c r="H118" t="s">
-        <v>53</v>
-      </c>
-      <c r="I118" t="s">
-        <v>53</v>
-      </c>
       <c r="J118">
         <v>7</v>
       </c>
@@ -13984,7 +13936,7 @@
         <v>7</v>
       </c>
       <c r="AH118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI118">
         <v>19</v>
@@ -13992,14 +13944,14 @@
       <c r="AJ118">
         <v>5</v>
       </c>
-      <c r="AK118">
-        <v>1</v>
-      </c>
-      <c r="AL118">
+      <c r="AM118">
+        <v>1</v>
+      </c>
+      <c r="AN118">
         <v>3.8</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>445</v>
       </c>
@@ -14021,12 +13973,6 @@
       <c r="G119">
         <v>5</v>
       </c>
-      <c r="H119" t="s">
-        <v>53</v>
-      </c>
-      <c r="I119" t="s">
-        <v>53</v>
-      </c>
       <c r="J119">
         <v>5</v>
       </c>
@@ -14100,7 +14046,7 @@
         <v>4</v>
       </c>
       <c r="AH119" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI119">
         <v>20</v>
@@ -14108,14 +14054,14 @@
       <c r="AJ119">
         <v>5</v>
       </c>
-      <c r="AK119">
-        <v>2</v>
-      </c>
-      <c r="AL119">
+      <c r="AM119">
+        <v>2</v>
+      </c>
+      <c r="AN119">
         <v>2.8</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>446</v>
       </c>
@@ -14137,12 +14083,6 @@
       <c r="G120">
         <v>5</v>
       </c>
-      <c r="H120" t="s">
-        <v>53</v>
-      </c>
-      <c r="I120" t="s">
-        <v>53</v>
-      </c>
       <c r="J120">
         <v>5</v>
       </c>
@@ -14216,7 +14156,7 @@
         <v>5</v>
       </c>
       <c r="AH120" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI120">
         <v>19</v>
@@ -14224,14 +14164,15 @@
       <c r="AJ120">
         <v>5</v>
       </c>
-      <c r="AK120">
-        <v>1</v>
-      </c>
-      <c r="AL120">
+      <c r="AM120">
+        <v>1</v>
+      </c>
+      <c r="AN120">
         <v>3.6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN120"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Post-Questionnaire_RP.xlsx
+++ b/raw-data-prep/raw_data/Post-Questionnaire_RP.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhilga\GitHub\vg-dissertation\raw-data-prep\raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="150" windowWidth="19155" windowHeight="12270"/>
   </bookViews>
@@ -171,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,6 +234,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -276,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,9 +530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL124" sqref="AL124"/>
+      <selection pane="bottomLeft" activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,9 +1352,6 @@
       <c r="A8">
         <v>315</v>
       </c>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
